--- a/public/Diffusion Marketplace.xlsx
+++ b/public/Diffusion Marketplace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -1000,6 +1000,9 @@
     <t>We need this information. I think it is another 10-20 that are implementing the practice now. We need the contacts.</t>
   </si>
   <si>
+    <t>pills_1000x550-730x402.png</t>
+  </si>
+  <si>
     <t>3 months</t>
   </si>
   <si>
@@ -1012,7 +1015,7 @@
     <t>Deprescribing medications using this approach has resulted in decreased pill burden and improved utilization of human and economic resources. At Central Arkansas VA Medical Center, between February 2016 and September 2018, over 8,400 Veterans have benefited from the program with almost 15,000 prescriptions deprescribed.  Eight other VA facilities have implemented VIONE. More than 18,000 medications have been discontinued in over 10,000 Veterans and the VIONE tool was exported to 31 VA medical centers.  VIONE has improved patient safety and increased patient quality of life.</t>
   </si>
   <si>
-    <t>$$$$ - Greater than $1M in cost avoidance.</t>
+    <t>4. $$$$ - Greater than $1M in cost avoidance.</t>
   </si>
   <si>
     <t>4. High or large Human Impact</t>
@@ -1081,12 +1084,6 @@
     <t>Air Force Veteran Barry Mitchell Vuletich tells Dr. Battar, “The lesser medicines I have to take, the better off I am.”</t>
   </si>
   <si>
-    <t>Dr. Battar/MD</t>
-  </si>
-  <si>
-    <t>same list as the first few questions/5 total</t>
-  </si>
-  <si>
     <t>I'm not sure how to steal photos from web sites or news articles that the VA has already published. Is that a legitimate source of quotes/photos/etc.? Can we just republish and list the source.   https://www.blogs.va.gov/VAntage/53716/helping-veterans-stop-unnecessary-medications/</t>
   </si>
   <si>
@@ -1120,7 +1117,7 @@
     <t xml:space="preserve">Puget Sound Health Care System </t>
   </si>
   <si>
-    <t>Complexity Level 1a Largest levels of volume, patient risk, teaching and research Largest number and breadth of physician specialists. Level 1a facilities contain level 5 Intensive Care Unit (ICU) units.</t>
+    <t>(1a) Complexity Level 1a Largest levels of volume, patient risk, teaching and research Largest number and breadth of physician specialists. Level 1a facilities contain level 5 Intensive Care Unit (ICU) units.</t>
   </si>
   <si>
     <t>Prosthetics and Rehabilitation</t>
@@ -1183,7 +1180,7 @@
     <t>FLOW3 is a system of three interrelated software platforms that automate, standardize, and provide transparency into the limb acquisition process. FLOW3 begins in-clinic with physician entry of a prosthesis prescription using the FLOW Consult Templates. The order then moves to the prosthetist, who enters the appropriate codes using the Consult Comment Tool. Then, purchasing agents use the Web-based App to generate the quote for force entry, which contracting staff can access the very next day.</t>
   </si>
   <si>
-    <t>$$ - Between $10,000 and $100,000 in annual cost avoidance</t>
+    <t>2. $$ - Between $10,000 and $100,000 in annual cost avoidance</t>
   </si>
   <si>
     <t>If FLOW3 champions do not allocate sufficient time to training their site the implementation process will be slow and time savings will not be achieved.</t>
@@ -1231,16 +1228,16 @@
     <t>Dr. Jeffrey Heckman, a physician in the VA Puget Sound Health Care System, treated many Veterans frustrated by the lengthy process of receiving their prosthetic limbs. Motivated by one such Veteran, who offered his own technical services to improve the process, Dr. Heckman gathered a team, consisting of prosthetist Wayne Biggs and data system expert Jeffrey Bott, to overhaul and automate the prosthetic limb acquisition process. The result was a system of three interrelated software platforms, known as FLOW3, that streamlines and provides transparency into the acquisition flow. After successful implementation at Puget Sound, the team spread their innovation through the Diffusion of Excellence program, beginning with a partnership with Dawn Schwarten at the Milwaukee VA Medical Center and ultimately rolling FLOW3 out across VISN 12.</t>
   </si>
   <si>
-    <t>Dr. Jeffrey T. Heckman/Clinical Lead and Gold Status Fellow</t>
-  </si>
-  <si>
-    <t>Jeff Bott/Technical Lead</t>
-  </si>
-  <si>
-    <t>Wayne Biggs/Coding and Template Lead</t>
-  </si>
-  <si>
-    <t>Brian Stevenson/Diffusion Specialist</t>
+    <t>Dr. Jeffrey T. Heckman\Clinical Lead and Gold Status Fellow</t>
+  </si>
+  <si>
+    <t>Jeff Bott\Technical Lead</t>
+  </si>
+  <si>
+    <t>Wayne Biggs\Coding and Template Lead</t>
+  </si>
+  <si>
+    <t>Brian Stevenson\Diffusion Specialist</t>
   </si>
   <si>
     <t>heckman_jeff.jpg</t>
@@ -1309,7 +1306,7 @@
     <t>This practice ensures inpatient, non-ventilator Veterans receive oral care by providing consistent staff training, educating patients on oral care and its association with pneumonia, and standardizing the procurement process for obtaining oral care supplies. HAPPEN is low cost to implement (less than $5.00 per patient for oral care supplies), has a high return on investment, and enhances the quality of care provided to Veterans. Nurses. By engaging Veterans in proper oral care practices, nurses can teach Veterans about the importance of good oral hygiene, and its ability to reduce Veterans’ hospital stays, while reducing the risk of readmission.</t>
   </si>
   <si>
-    <t>$$$ - Between $100,000 and $1 Million</t>
+    <t>3. $$$ - Between $100,000 and $1 Million</t>
   </si>
   <si>
     <t>Non reporting and inconsistencies in reporting can make it hard to tell if the practice is being used correctly</t>
@@ -4225,7 +4222,7 @@
         <v>43520.39091435185</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43520.42805555555</v>
+        <v>43525.04221064815</v>
       </c>
       <c r="E6" t="s">
         <v>307</v>
@@ -4560,7 +4557,9 @@
       <c r="HM6" t="s">
         <v>327</v>
       </c>
-      <c r="HN6" t="s"/>
+      <c r="HN6" t="s">
+        <v>328</v>
+      </c>
       <c r="HO6" t="s"/>
       <c r="HP6" t="s"/>
       <c r="HQ6" t="s"/>
@@ -4590,54 +4589,54 @@
       <c r="IK6" t="s"/>
       <c r="IL6" t="s"/>
       <c r="IM6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="IN6" t="s"/>
       <c r="IO6" t="s"/>
       <c r="IP6" t="s"/>
       <c r="IQ6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="IR6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="IS6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="IT6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="IU6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="IV6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="IW6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="IX6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="IY6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="IZ6" t="s"/>
       <c r="JA6" t="s"/>
       <c r="JB6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="JC6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="JD6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="JE6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="JF6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="JG6" t="s">
         <v>220</v>
@@ -4664,61 +4663,61 @@
       <c r="JS6" t="s"/>
       <c r="JT6" t="s"/>
       <c r="JU6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="JV6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="JW6" t="s"/>
       <c r="JX6" t="s"/>
       <c r="JY6" t="s"/>
       <c r="JZ6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="KA6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="KB6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="KC6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="KD6" t="s"/>
       <c r="KE6" t="s"/>
       <c r="KF6" t="s"/>
       <c r="KG6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="KH6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="KI6" t="s"/>
       <c r="KJ6" t="s"/>
       <c r="KK6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="KL6" t="s"/>
       <c r="KM6" t="s"/>
       <c r="KN6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="KO6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="KP6" t="s"/>
       <c r="KQ6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="KR6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="KS6" t="s"/>
       <c r="KT6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="KU6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="KV6" t="s"/>
       <c r="KW6" t="s"/>
@@ -4727,21 +4726,25 @@
       <c r="KZ6" t="s"/>
       <c r="LA6" t="s"/>
       <c r="LB6" t="s">
-        <v>355</v>
-      </c>
-      <c r="LC6" t="s">
-        <v>356</v>
-      </c>
-      <c r="LD6" t="s"/>
-      <c r="LE6" t="s"/>
-      <c r="LF6" t="s"/>
+        <v>310</v>
+      </c>
+      <c r="LC6" t="s"/>
+      <c r="LD6" t="s">
+        <v>311</v>
+      </c>
+      <c r="LE6" t="s">
+        <v>312</v>
+      </c>
+      <c r="LF6" t="s">
+        <v>313</v>
+      </c>
       <c r="LG6" t="s"/>
       <c r="LH6" t="s"/>
       <c r="LI6" t="s"/>
       <c r="LJ6" t="s"/>
       <c r="LK6" t="s"/>
       <c r="LL6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:324">
@@ -4755,22 +4758,22 @@
         <v>43518.48881944444</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43524.4716087963</v>
+        <v>43525.04128472223</v>
       </c>
       <c r="E7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" t="s">
         <v>358</v>
-      </c>
-      <c r="F7" t="s">
-        <v>359</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K7" t="s">
         <v>360</v>
-      </c>
-      <c r="K7" t="s">
-        <v>361</v>
       </c>
       <c r="L7" t="s"/>
       <c r="M7" t="s">
@@ -4784,21 +4787,21 @@
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="s">
+        <v>361</v>
+      </c>
+      <c r="V7" t="s">
         <v>362</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>363</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>364</v>
-      </c>
-      <c r="X7" t="s">
-        <v>365</v>
       </c>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
       <c r="AA7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB7" t="s"/>
       <c r="AC7" t="s">
@@ -4832,10 +4835,10 @@
       <c r="AY7" t="s"/>
       <c r="AZ7" t="s"/>
       <c r="BA7" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB7" t="s">
         <v>367</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>368</v>
       </c>
       <c r="BC7" t="s"/>
       <c r="BD7" t="s">
@@ -4903,7 +4906,7 @@
       <c r="CT7" t="s"/>
       <c r="CU7" t="s"/>
       <c r="CV7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="CW7" t="s"/>
       <c r="CX7" t="s"/>
@@ -4929,16 +4932,16 @@
       <c r="DP7" t="s"/>
       <c r="DQ7" t="s"/>
       <c r="DR7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DS7" t="s">
         <v>370</v>
       </c>
-      <c r="DS7" t="s">
+      <c r="DT7" t="s">
         <v>371</v>
       </c>
-      <c r="DT7" t="s">
+      <c r="DU7" t="s">
         <v>372</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>373</v>
       </c>
       <c r="DV7" t="s"/>
       <c r="DW7" t="s">
@@ -4983,7 +4986,7 @@
       <c r="EV7" t="s"/>
       <c r="EW7" t="s"/>
       <c r="EX7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="EY7" t="s"/>
       <c r="EZ7" t="s"/>
@@ -5070,28 +5073,28 @@
       <c r="HE7" t="s"/>
       <c r="HF7" t="s"/>
       <c r="HG7" t="s">
+        <v>374</v>
+      </c>
+      <c r="HH7" t="s">
         <v>375</v>
       </c>
-      <c r="HH7" t="s">
+      <c r="HI7" t="s">
         <v>376</v>
       </c>
-      <c r="HI7" t="s">
+      <c r="HJ7" t="s">
         <v>377</v>
-      </c>
-      <c r="HJ7" t="s">
-        <v>378</v>
       </c>
       <c r="HK7" t="n">
         <v>2</v>
       </c>
       <c r="HL7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HM7" t="s">
         <v>379</v>
       </c>
-      <c r="HM7" t="s">
+      <c r="HN7" t="s">
         <v>380</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>381</v>
       </c>
       <c r="HO7" t="s"/>
       <c r="HP7" t="s"/>
@@ -5101,13 +5104,13 @@
       <c r="HT7" t="s"/>
       <c r="HU7" t="s"/>
       <c r="HV7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HW7" t="s">
         <v>382</v>
       </c>
-      <c r="HW7" t="s">
+      <c r="HX7" t="s">
         <v>383</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>384</v>
       </c>
       <c r="HY7" t="s"/>
       <c r="HZ7" t="s"/>
@@ -5129,50 +5132,50 @@
       </c>
       <c r="IK7" t="s"/>
       <c r="IL7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="IM7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="IN7" t="s"/>
       <c r="IO7" t="s"/>
       <c r="IP7" t="s"/>
       <c r="IQ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="IR7" t="s">
         <v>386</v>
       </c>
-      <c r="IR7" t="s">
+      <c r="IS7" t="s">
         <v>387</v>
       </c>
-      <c r="IS7" t="s">
+      <c r="IT7" t="s">
         <v>388</v>
       </c>
-      <c r="IT7" t="s">
+      <c r="IU7" t="s">
+        <v>334</v>
+      </c>
+      <c r="IV7" t="s">
         <v>389</v>
       </c>
-      <c r="IU7" t="s">
-        <v>333</v>
-      </c>
-      <c r="IV7" t="s">
+      <c r="IW7" t="s">
         <v>390</v>
-      </c>
-      <c r="IW7" t="s">
-        <v>391</v>
       </c>
       <c r="IX7" t="s"/>
       <c r="IY7" t="s"/>
       <c r="IZ7" t="s"/>
       <c r="JA7" t="s"/>
       <c r="JB7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="JC7" t="s">
+        <v>391</v>
+      </c>
+      <c r="JD7" t="s">
         <v>392</v>
       </c>
-      <c r="JD7" t="s">
-        <v>393</v>
-      </c>
       <c r="JE7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="JF7" t="s"/>
       <c r="JG7" t="s"/>
@@ -5195,51 +5198,51 @@
       <c r="JX7" t="s"/>
       <c r="JY7" t="s"/>
       <c r="JZ7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="KA7" t="s">
+        <v>393</v>
+      </c>
+      <c r="KB7" t="s">
         <v>394</v>
       </c>
-      <c r="KB7" t="s">
+      <c r="KC7" t="s">
         <v>395</v>
       </c>
-      <c r="KC7" t="s">
+      <c r="KD7" t="s">
         <v>396</v>
       </c>
-      <c r="KD7" t="s">
+      <c r="KE7" t="s">
         <v>397</v>
-      </c>
-      <c r="KE7" t="s">
-        <v>398</v>
       </c>
       <c r="KF7" t="s"/>
       <c r="KG7" t="s"/>
       <c r="KH7" t="s">
+        <v>398</v>
+      </c>
+      <c r="KI7" t="s">
         <v>399</v>
-      </c>
-      <c r="KI7" t="s">
-        <v>400</v>
       </c>
       <c r="KJ7" t="s"/>
       <c r="KK7" t="s">
+        <v>400</v>
+      </c>
+      <c r="KL7" t="s">
         <v>401</v>
-      </c>
-      <c r="KL7" t="s">
-        <v>402</v>
       </c>
       <c r="KM7" t="s"/>
       <c r="KN7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="KO7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="KP7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="KQ7" t="s"/>
       <c r="KR7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="KS7" t="s"/>
       <c r="KT7" t="s"/>
@@ -5251,29 +5254,29 @@
       <c r="KZ7" t="s"/>
       <c r="LA7" t="s"/>
       <c r="LB7" t="s">
+        <v>404</v>
+      </c>
+      <c r="LC7" t="s">
         <v>405</v>
       </c>
-      <c r="LC7" t="s">
+      <c r="LD7" t="s">
         <v>406</v>
       </c>
-      <c r="LD7" t="s">
+      <c r="LE7" t="s">
         <v>407</v>
-      </c>
-      <c r="LE7" t="s">
-        <v>408</v>
       </c>
       <c r="LF7" t="s"/>
       <c r="LG7" t="s">
+        <v>408</v>
+      </c>
+      <c r="LH7" t="s">
         <v>409</v>
       </c>
-      <c r="LH7" t="s">
+      <c r="LI7" t="s">
         <v>410</v>
       </c>
-      <c r="LI7" t="s">
+      <c r="LJ7" t="s">
         <v>411</v>
-      </c>
-      <c r="LJ7" t="s">
-        <v>412</v>
       </c>
       <c r="LK7" t="s"/>
       <c r="LL7" t="s"/>
@@ -5292,19 +5295,19 @@
         <v>43518.56435185186</v>
       </c>
       <c r="E8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" t="s">
         <v>413</v>
-      </c>
-      <c r="F8" t="s">
-        <v>414</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s">
+        <v>414</v>
+      </c>
+      <c r="K8" t="s">
         <v>415</v>
-      </c>
-      <c r="K8" t="s">
-        <v>416</v>
       </c>
       <c r="L8" t="s"/>
       <c r="M8" t="s"/>
@@ -5316,21 +5319,21 @@
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="s">
+        <v>416</v>
+      </c>
+      <c r="V8" t="s">
         <v>417</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>418</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>419</v>
-      </c>
-      <c r="X8" t="s">
-        <v>420</v>
       </c>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB8" t="s"/>
       <c r="AC8" t="s">
@@ -5362,7 +5365,7 @@
       <c r="AY8" t="s"/>
       <c r="AZ8" t="s"/>
       <c r="BA8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BB8" t="s"/>
       <c r="BC8" t="s"/>
@@ -5441,13 +5444,13 @@
       <c r="DP8" t="s"/>
       <c r="DQ8" t="s"/>
       <c r="DR8" t="s">
+        <v>422</v>
+      </c>
+      <c r="DS8" t="s">
         <v>423</v>
       </c>
-      <c r="DS8" t="s">
+      <c r="DT8" t="s">
         <v>424</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>425</v>
       </c>
       <c r="DU8" t="s"/>
       <c r="DV8" t="s"/>
@@ -5569,11 +5572,11 @@
       <c r="HT8" t="s"/>
       <c r="HU8" t="s"/>
       <c r="HV8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="HW8" t="s"/>
       <c r="HX8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="HY8" t="s"/>
       <c r="HZ8" t="s"/>
@@ -5591,54 +5594,54 @@
       </c>
       <c r="IK8" t="s"/>
       <c r="IL8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="IM8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="IN8" t="s"/>
       <c r="IO8" t="s"/>
       <c r="IP8" t="s"/>
       <c r="IQ8" t="s">
+        <v>427</v>
+      </c>
+      <c r="IR8" t="s">
         <v>428</v>
       </c>
-      <c r="IR8" t="s">
+      <c r="IS8" t="s">
         <v>429</v>
       </c>
-      <c r="IS8" t="s">
+      <c r="IT8" t="s">
         <v>430</v>
       </c>
-      <c r="IT8" t="s">
+      <c r="IU8" t="s">
+        <v>334</v>
+      </c>
+      <c r="IV8" t="s">
         <v>431</v>
       </c>
-      <c r="IU8" t="s">
-        <v>333</v>
-      </c>
-      <c r="IV8" t="s">
+      <c r="IW8" t="s">
         <v>432</v>
       </c>
-      <c r="IW8" t="s">
+      <c r="IX8" t="s">
         <v>433</v>
       </c>
-      <c r="IX8" t="s">
+      <c r="IY8" t="s">
         <v>434</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>435</v>
       </c>
       <c r="IZ8" t="s"/>
       <c r="JA8" t="s"/>
       <c r="JB8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="JC8" t="s">
+        <v>391</v>
+      </c>
+      <c r="JD8" t="s">
         <v>392</v>
       </c>
-      <c r="JD8" t="s">
-        <v>393</v>
-      </c>
       <c r="JE8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="JF8" t="s"/>
       <c r="JG8" t="s"/>
@@ -5661,7 +5664,7 @@
       <c r="JX8" t="s"/>
       <c r="JY8" t="s"/>
       <c r="JZ8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="KA8" t="s"/>
       <c r="KB8" t="s"/>
@@ -5670,33 +5673,33 @@
       <c r="KE8" t="s"/>
       <c r="KF8" t="s"/>
       <c r="KG8" t="s">
+        <v>435</v>
+      </c>
+      <c r="KH8" t="s">
         <v>436</v>
-      </c>
-      <c r="KH8" t="s">
-        <v>437</v>
       </c>
       <c r="KI8" t="s"/>
       <c r="KJ8" t="s"/>
       <c r="KK8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="KL8" t="s"/>
       <c r="KM8" t="s"/>
       <c r="KN8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="KO8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="KP8" t="s"/>
       <c r="KQ8" t="s"/>
       <c r="KR8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="KS8" t="s"/>
       <c r="KT8" t="s"/>
       <c r="KU8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="KV8" t="s"/>
       <c r="KW8" t="s"/>
@@ -5705,7 +5708,7 @@
       <c r="KZ8" t="s"/>
       <c r="LA8" t="s"/>
       <c r="LB8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="LC8" t="s"/>
       <c r="LD8" t="s"/>
@@ -5735,7 +5738,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s"/>

--- a/public/Diffusion Marketplace.xlsx
+++ b/public/Diffusion Marketplace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="426">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -49,25 +49,22 @@
     <t>What is the name of your practice?</t>
   </si>
   <si>
-    <t>Who are the Practice Partners responsible for this practice? (Please select all that apply.)</t>
+    <t>Who is the primary sponsor responsible for creating this practice and bringing it to national awareness?</t>
+  </si>
+  <si>
+    <t>What organizations have funded this Practice?</t>
+  </si>
+  <si>
+    <t>What organizations are affiliated or partnered with this Practice?</t>
   </si>
   <si>
     <t>What VA employee(s) were responsible for the development of this Practice? (Innovation Team)Please separate the person's Name from their Role with a backslash (\)</t>
   </si>
   <si>
-    <t>When was this practice initiated?</t>
-  </si>
-  <si>
-    <t>Where was this practice initially developed? (Please select all that apply.)</t>
-  </si>
-  <si>
-    <t>This practice was developed in which VISN? (Please select all that apply.)</t>
-  </si>
-  <si>
-    <t>Please list the name of the facility that initiated this Practice (Medical Center, CBOC, or other facility. Type in "None" if appropriate).</t>
-  </si>
-  <si>
-    <t>What is the complexity level of your medical center?</t>
+    <t>When was this practice initiated? If day is unknown, use the first of the month</t>
+  </si>
+  <si>
+    <t>Please list the station id of the facility that initiated this Practice. Please reference: https://www.va.gov/directory/guide/rpt_fac_list.cfm?sort=Sta&amp;list_by=all&amp;oid=all</t>
   </si>
   <si>
     <t>Which of the VA Secretary’s Priorities does this practice Address? (Please select all that apply.)</t>
@@ -76,10 +73,10 @@
     <t>Which of the following areas does this practice affect? (Please select all that apply.)</t>
   </si>
   <si>
-    <t>What are the impacts of this practice clinically? Please select all clinical domains this practice impacts.</t>
-  </si>
-  <si>
-    <t>Additional clinical impacts of this practice? (Please select all that apply.)</t>
+    <t>What medical specialties does this Practice impact? Please select all all that apply.</t>
+  </si>
+  <si>
+    <t>What are the whole health impacts of this practice? (Please select all that apply.)</t>
   </si>
   <si>
     <t>Which of the following clinical conditions does this practice affect? (Please select all that apply.)</t>
@@ -88,9 +85,6 @@
     <t>Please enter an estimate in dollars of the cost avoidance per facility (Medical Center, CBOC, or applicable institution).</t>
   </si>
   <si>
-    <t>Please enter an estimate in dollars of the cost avoidance per veteran.</t>
-  </si>
-  <si>
     <t>Please enter relevant financial data regarding this practice such as ROI, a business case summary, or other financial analysis.</t>
   </si>
   <si>
@@ -109,10 +103,7 @@
     <t>Which of the following clinical locations does this practice impact? (Please select all that apply.)</t>
   </si>
   <si>
-    <t>Which department does this primarily impact?</t>
-  </si>
-  <si>
-    <t>Which other department(s) does this impact? Please mark all departments that will need to have buy-in or will need to participate in implementation.</t>
+    <t>Which departments or operational domains does this Practice impact?</t>
   </si>
   <si>
     <t>Please supply an email address for this practice's support network in order to direct interested parties. (e.g. HAPPEN@va.gov)</t>
@@ -121,15 +112,6 @@
     <t>Please identify where your practice falls currently in VHA’s Phase Gate Model of Innovation. (Add a 10 word definition of each stage.)</t>
   </si>
   <si>
-    <t>What objective measure do you use to define a successful implementation? (For example 10 patients complete the clinical protocol.)</t>
-  </si>
-  <si>
-    <t>What target measure(s) do you use to show success?</t>
-  </si>
-  <si>
-    <t>How many did it take to be considered a successful "launch"?</t>
-  </si>
-  <si>
     <t>Please identify all VA facilities that have already implemented this practice along with two points of contact.</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>Does your practice have peer-reviewed publications associated with it online? Enter url(s) if so.</t>
   </si>
   <si>
-    <t>Has your practice been vetted? Has the practice been reviewed and approved by any of the following groups and qualify for badging? (Please select all that apply.)</t>
-  </si>
-  <si>
     <t>How long does it usually take a group to implement your practice? How long do you expect it to take?</t>
   </si>
   <si>
@@ -214,19 +193,16 @@
     <t>What is the third risk to implementation? Please describe how you would mitigate it.</t>
   </si>
   <si>
-    <t>Based on the risks and mitigations you provided, how would you rate your Practice overall with regards to risk level?</t>
-  </si>
-  <si>
     <t>Under the side navigation "Resources Required" tab, the "Cost of Resources to Implement" rating will eventually be provided by individuals who have implemented this practice.For now, please provide your best estimate of the Cost of Resources to Implement your Practice on a scale of 1 - 4</t>
   </si>
   <si>
     <t>Under the side navigation "Resources Required" tab, the "Difficulty of Implementation" rating will eventually be provided by individuals who have implemented this practice.For now, please provide your best estimate of the Difficulty of Implementation your Practice on a scale of 1 - 4</t>
   </si>
   <si>
-    <t>Will additional staff be required to implement or sustain this practice?</t>
-  </si>
-  <si>
-    <t>For the staff members that need to be added in the previous question, what job titles are required to implement your Practice?</t>
+    <t>Did your institution have to hire additional staff to implement this Practice?</t>
+  </si>
+  <si>
+    <t>What job titles are required to implement this Practice?</t>
   </si>
   <si>
     <t>For the job titles listed, how many hours are required per week?</t>
@@ -250,7 +226,7 @@
     <t>How long is the training? What is required (such as 5 20 minute videos and then take a quiz vs. attend 2 meetings)? Is there a test involved?</t>
   </si>
   <si>
-    <t>List other Costs and Difficulties of Implementation that are unique to your Practice.</t>
+    <t>List other Costs of Implementation that are unique to your Practice.</t>
   </si>
   <si>
     <t>Will a policy change be required?</t>
@@ -313,6 +289,12 @@
     <t>Open-Ended Response</t>
   </si>
   <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Other (please specify)</t>
+  </si>
+  <si>
     <t>VISN</t>
   </si>
   <si>
@@ -361,78 +343,6 @@
     <t>Date / Time</t>
   </si>
   <si>
-    <t>CBOC</t>
-  </si>
-  <si>
-    <t>VA Medical Center</t>
-  </si>
-  <si>
-    <t>VA Program Office</t>
-  </si>
-  <si>
-    <t>Outside of VA</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>VISN 1</t>
-  </si>
-  <si>
-    <t>VISN 2</t>
-  </si>
-  <si>
-    <t>VISN 4</t>
-  </si>
-  <si>
-    <t>VISN 5</t>
-  </si>
-  <si>
-    <t>VISN 6</t>
-  </si>
-  <si>
-    <t>VISN 7</t>
-  </si>
-  <si>
-    <t>VISN 8</t>
-  </si>
-  <si>
-    <t>VISN 9</t>
-  </si>
-  <si>
-    <t>VISN 10</t>
-  </si>
-  <si>
-    <t>VISN 12</t>
-  </si>
-  <si>
-    <t>VISN 15</t>
-  </si>
-  <si>
-    <t>VISN 16</t>
-  </si>
-  <si>
-    <t>VISN 17</t>
-  </si>
-  <si>
-    <t>VISN 19</t>
-  </si>
-  <si>
-    <t>VISN 20</t>
-  </si>
-  <si>
-    <t>VISN 21</t>
-  </si>
-  <si>
-    <t>VISN 22</t>
-  </si>
-  <si>
-    <t>VISN 23</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>Giving Veterans choice</t>
   </si>
   <si>
@@ -484,6 +394,9 @@
     <t>Allergy and Immunology</t>
   </si>
   <si>
+    <t>Anesthesia</t>
+  </si>
+  <si>
     <t>Cardiology</t>
   </si>
   <si>
@@ -493,15 +406,24 @@
     <t>Dermatology</t>
   </si>
   <si>
+    <t>Emergency Medicine</t>
+  </si>
+  <si>
     <t>Endocrinology</t>
   </si>
   <si>
+    <t>Family Medicine</t>
+  </si>
+  <si>
     <t>Hematology</t>
   </si>
   <si>
     <t>Infectious Disease</t>
   </si>
   <si>
+    <t>Internal Medicine</t>
+  </si>
+  <si>
     <t>Mental Health / Psychiatry</t>
   </si>
   <si>
@@ -535,6 +457,9 @@
     <t>Pulmonology / Respiratory</t>
   </si>
   <si>
+    <t>Radiology</t>
+  </si>
+  <si>
     <t>Rehab Medicine</t>
   </si>
   <si>
@@ -697,9 +622,6 @@
     <t>Physical Therapy</t>
   </si>
   <si>
-    <t>Radiology</t>
-  </si>
-  <si>
     <t>Rehabilitation &amp; Prosthetics</t>
   </si>
   <si>
@@ -742,10 +664,7 @@
     <t>Admissions</t>
   </si>
   <si>
-    <t>Anesthetics</t>
-  </si>
-  <si>
-    <t>Center Supply</t>
+    <t>Central Supply</t>
   </si>
   <si>
     <t>Chapliancy</t>
@@ -778,34 +697,37 @@
     <t>Security</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Occupational Health and Safety</t>
+  </si>
+  <si>
+    <t>General Surgery</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Intensive Care Unit</t>
+  </si>
+  <si>
+    <t>Infection Control</t>
+  </si>
+  <si>
+    <t>Information Management / Information Technology</t>
+  </si>
+  <si>
     <t>Laundry</t>
   </si>
   <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>General Surgery</t>
-  </si>
-  <si>
-    <t>Occupational Health and Safety</t>
-  </si>
-  <si>
-    <t>Intensive Care Unit</t>
-  </si>
-  <si>
-    <t>Infection Control</t>
-  </si>
-  <si>
-    <t>Information Management</t>
-  </si>
-  <si>
     <t>Maternity</t>
   </si>
   <si>
     <t>Microbiology</t>
   </si>
   <si>
-    <t>Nutrition and Dietetics</t>
+    <t>Nutrition and Dietetics / Food Service</t>
   </si>
   <si>
     <t>Patient Accounts</t>
@@ -823,6 +745,9 @@
     <t>Radiotherapy</t>
   </si>
   <si>
+    <t>Social Work / Social Services</t>
+  </si>
+  <si>
     <t>Publication Link 1</t>
   </si>
   <si>
@@ -832,9 +757,6 @@
     <t>Publication Link 3</t>
   </si>
   <si>
-    <t>Gold Status Practice</t>
-  </si>
-  <si>
     <t>Risk</t>
   </si>
   <si>
@@ -919,12 +841,93 @@
     <t>Unique Difficulty 3</t>
   </si>
   <si>
+    <t>108.185.54.63</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>03/01/2019</t>
+  </si>
+  <si>
+    <t>3. Pilot</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
     <t>152.130.10.10</t>
   </si>
   <si>
     <t>Elizabeth.Orvek@va.gov</t>
   </si>
   <si>
+    <t>elizabeth.orvek@va.gov</t>
+  </si>
+  <si>
+    <t>Testing the Survey Form</t>
+  </si>
+  <si>
+    <t>QUERI</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>03/11/2019</t>
+  </si>
+  <si>
+    <t>Bedford VAMC</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>4. Initial Diffusion</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>The Best Practice to Ever Test this Survey!</t>
+  </si>
+  <si>
+    <t>More Detailed than you could ever imagine!</t>
+  </si>
+  <si>
+    <t>test description</t>
+  </si>
+  <si>
+    <t>1. $ - No annual cost avoidance or less than $10,000</t>
+  </si>
+  <si>
+    <t>1. Little or no Human Impact</t>
+  </si>
+  <si>
+    <t>No Risks</t>
+  </si>
+  <si>
+    <t>No Mitigation needed!</t>
+  </si>
+  <si>
+    <t>1. Little to no cost / resources to implement</t>
+  </si>
+  <si>
+    <t>1. Little to no difficulty to implement</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>172.56.5.4</t>
   </si>
   <si>
@@ -973,9 +976,6 @@
     <t>$2,500,000.00</t>
   </si>
   <si>
-    <t>$418.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ongoing annual savings of over $2M per location. With evaluation of 7 thousand patients over 12 thousand medications deprescribed, noadverse outcomes, and veterans report increased satisfaction with their medical care. </t>
   </si>
   <si>
@@ -985,21 +985,15 @@
     <t>5. National Diffusion</t>
   </si>
   <si>
-    <t>100% of pharmacists complete training, 50% of pharmacists conduct VIONE assessments of at least 5 patients each</t>
-  </si>
-  <si>
-    <t># of patients assessed, # of meds deprescribed total, # of meds deprescribed per patient, cost avoidance, patient satisfaction scores</t>
-  </si>
-  <si>
-    <t>50 patients assessed</t>
-  </si>
-  <si>
     <t>We need this information. I think it is about 10 that have implemented it.  We need the contacts.</t>
   </si>
   <si>
     <t>We need this information. I think it is another 10-20 that are implementing the practice now. We need the contacts.</t>
   </si>
   <si>
+    <t>pills_1000x550-730x402.png</t>
+  </si>
+  <si>
     <t>3 months</t>
   </si>
   <si>
@@ -1012,7 +1006,7 @@
     <t>Deprescribing medications using this approach has resulted in decreased pill burden and improved utilization of human and economic resources. At Central Arkansas VA Medical Center, between February 2016 and September 2018, over 8,400 Veterans have benefited from the program with almost 15,000 prescriptions deprescribed.  Eight other VA facilities have implemented VIONE. More than 18,000 medications have been discontinued in over 10,000 Veterans and the VIONE tool was exported to 31 VA medical centers.  VIONE has improved patient safety and increased patient quality of life.</t>
   </si>
   <si>
-    <t>$$$$ - Greater than $1M in cost avoidance.</t>
+    <t>4. $$$$ - Greater than $1M in cost avoidance.</t>
   </si>
   <si>
     <t>4. High or large Human Impact</t>
@@ -1030,18 +1024,12 @@
     <t>Use pre-implementation check list to be sure the implementing site is adequately prepared. If not prepared, make adjustments and allocate resources prior to starting implementation.</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>2. Some cost / resources to implement</t>
   </si>
   <si>
     <t>2. Some difficulty to implement</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Pharmacist Champion</t>
   </si>
   <si>
@@ -1066,9 +1054,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Helping Veterans stop unnecessary medications: Dr. Sara Swathy Battar's story.</t>
   </si>
   <si>
@@ -1081,18 +1066,9 @@
     <t>Air Force Veteran Barry Mitchell Vuletich tells Dr. Battar, “The lesser medicines I have to take, the better off I am.”</t>
   </si>
   <si>
-    <t>Dr. Battar/MD</t>
-  </si>
-  <si>
-    <t>same list as the first few questions/5 total</t>
-  </si>
-  <si>
     <t>I'm not sure how to steal photos from web sites or news articles that the VA has already published. Is that a legitimate source of quotes/photos/etc.? Can we just republish and list the source.   https://www.blogs.va.gov/VAntage/53716/helping-veterans-stop-unnecessary-medications/</t>
   </si>
   <si>
-    <t>108.185.54.63</t>
-  </si>
-  <si>
     <t>aurora.hay@agile6.com</t>
   </si>
   <si>
@@ -1120,9 +1096,6 @@
     <t xml:space="preserve">Puget Sound Health Care System </t>
   </si>
   <si>
-    <t>Complexity Level 1a Largest levels of volume, patient risk, teaching and research Largest number and breadth of physician specialists. Level 1a facilities contain level 5 Intensive Care Unit (ICU) units.</t>
-  </si>
-  <si>
     <t>Prosthetics and Rehabilitation</t>
   </si>
   <si>
@@ -1132,9 +1105,6 @@
     <t>$1.5M</t>
   </si>
   <si>
-    <t>$10,000.00</t>
-  </si>
-  <si>
     <t>FLOW3 offers a faster process from prescription to purchase order to prosthetic limb delivery.  The System improves communication, patient engagement and continuity of care.  It provides greater data transparency and accuracy with data mining.</t>
   </si>
   <si>
@@ -1144,15 +1114,6 @@
     <t>FLOW3@va.gov</t>
   </si>
   <si>
-    <t>4. Initial Diffusion</t>
-  </si>
-  <si>
-    <t>1 additional VISN and 7 Regional Amputee Clinics (RACs), Appx 8000 patients impacted</t>
-  </si>
-  <si>
-    <t>FLOW3 Dashboard shows implementation phases of readiness and completion for all sites</t>
-  </si>
-  <si>
     <t>VISN 12  VISN 20</t>
   </si>
   <si>
@@ -1171,9 +1132,6 @@
     <t>https://www.vapulse.net/groups/flow3</t>
   </si>
   <si>
-    <t>Authority to Operate</t>
-  </si>
-  <si>
     <t>Delivery of prosthetic limbs to Veterans in less than ½ the time</t>
   </si>
   <si>
@@ -1183,7 +1141,7 @@
     <t>FLOW3 is a system of three interrelated software platforms that automate, standardize, and provide transparency into the limb acquisition process. FLOW3 begins in-clinic with physician entry of a prosthesis prescription using the FLOW Consult Templates. The order then moves to the prosthetist, who enters the appropriate codes using the Consult Comment Tool. Then, purchasing agents use the Web-based App to generate the quote for force entry, which contracting staff can access the very next day.</t>
   </si>
   <si>
-    <t>$$ - Between $10,000 and $100,000 in annual cost avoidance</t>
+    <t>2. $$ - Between $10,000 and $100,000 in annual cost avoidance</t>
   </si>
   <si>
     <t>If FLOW3 champions do not allocate sufficient time to training their site the implementation process will be slow and time savings will not be achieved.</t>
@@ -1192,12 +1150,6 @@
     <t>Support Champions with a pre-implementation readiness checklist to help identify pitfalls in their planning.\Empower and Support Champions with official training materials.</t>
   </si>
   <si>
-    <t>1. Little to no cost / resources to implement</t>
-  </si>
-  <si>
-    <t>1. Little to no difficulty to implement</t>
-  </si>
-  <si>
     <t>Diffusion Specialist</t>
   </si>
   <si>
@@ -1231,16 +1183,16 @@
     <t>Dr. Jeffrey Heckman, a physician in the VA Puget Sound Health Care System, treated many Veterans frustrated by the lengthy process of receiving their prosthetic limbs. Motivated by one such Veteran, who offered his own technical services to improve the process, Dr. Heckman gathered a team, consisting of prosthetist Wayne Biggs and data system expert Jeffrey Bott, to overhaul and automate the prosthetic limb acquisition process. The result was a system of three interrelated software platforms, known as FLOW3, that streamlines and provides transparency into the acquisition flow. After successful implementation at Puget Sound, the team spread their innovation through the Diffusion of Excellence program, beginning with a partnership with Dawn Schwarten at the Milwaukee VA Medical Center and ultimately rolling FLOW3 out across VISN 12.</t>
   </si>
   <si>
-    <t>Dr. Jeffrey T. Heckman/Clinical Lead and Gold Status Fellow</t>
-  </si>
-  <si>
-    <t>Jeff Bott/Technical Lead</t>
-  </si>
-  <si>
-    <t>Wayne Biggs/Coding and Template Lead</t>
-  </si>
-  <si>
-    <t>Brian Stevenson/Diffusion Specialist</t>
+    <t>Dr. Jeffrey T. Heckman\Clinical Lead and Gold Status Fellow</t>
+  </si>
+  <si>
+    <t>Jeff Bott\Technical Lead</t>
+  </si>
+  <si>
+    <t>Wayne Biggs\Coding and Template Lead</t>
+  </si>
+  <si>
+    <t>Brian Stevenson\Diffusion Specialist</t>
   </si>
   <si>
     <t>heckman_jeff.jpg</t>
@@ -1291,9 +1243,6 @@
     <t>$862,857</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Oral Care Toolkit_1_21_19_minus attachments.pdf</t>
   </si>
   <si>
@@ -1309,7 +1258,7 @@
     <t>This practice ensures inpatient, non-ventilator Veterans receive oral care by providing consistent staff training, educating patients on oral care and its association with pneumonia, and standardizing the procurement process for obtaining oral care supplies. HAPPEN is low cost to implement (less than $5.00 per patient for oral care supplies), has a high return on investment, and enhances the quality of care provided to Veterans. Nurses. By engaging Veterans in proper oral care practices, nurses can teach Veterans about the importance of good oral hygiene, and its ability to reduce Veterans’ hospital stays, while reducing the risk of readmission.</t>
   </si>
   <si>
-    <t>$$$ - Between $100,000 and $1 Million</t>
+    <t>3. $$$ - Between $100,000 and $1 Million</t>
   </si>
   <si>
     <t>Non reporting and inconsistencies in reporting can make it hard to tell if the practice is being used correctly</t>
@@ -1710,7 +1659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LL9"/>
+  <dimension ref="A1:LA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,7 +1667,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:324">
+    <row r="1" spans="1:313">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1705,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s"/>
-      <c r="N1" s="1" t="s"/>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="1" t="s"/>
       <c r="P1" s="1" t="s"/>
       <c r="Q1" s="1" t="s"/>
@@ -1764,63 +1715,61 @@
       <c r="S1" s="1" t="s"/>
       <c r="T1" s="1" t="s"/>
       <c r="U1" s="1" t="s"/>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="V1" s="1" t="s"/>
       <c r="W1" s="1" t="s"/>
-      <c r="X1" s="1" t="s"/>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="Y1" s="1" t="s"/>
       <c r="Z1" s="1" t="s"/>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="AA1" s="1" t="s"/>
+      <c r="AB1" s="1" t="s"/>
       <c r="AC1" s="1" t="s"/>
       <c r="AD1" s="1" t="s"/>
       <c r="AE1" s="1" t="s"/>
       <c r="AF1" s="1" t="s"/>
       <c r="AG1" s="1" t="s"/>
       <c r="AH1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI1" s="1" t="s"/>
       <c r="AJ1" s="1" t="s"/>
       <c r="AK1" s="1" t="s"/>
       <c r="AL1" s="1" t="s"/>
-      <c r="AM1" s="1" t="s"/>
-      <c r="AN1" s="1" t="s"/>
-      <c r="AO1" s="1" t="s"/>
+      <c r="AM1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AP1" s="1" t="s"/>
       <c r="AQ1" s="1" t="s"/>
       <c r="AR1" s="1" t="s"/>
       <c r="AS1" s="1" t="s"/>
       <c r="AT1" s="1" t="s"/>
       <c r="AU1" s="1" t="s"/>
-      <c r="AV1" s="1" t="s"/>
+      <c r="AV1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AW1" s="1" t="s"/>
       <c r="AX1" s="1" t="s"/>
       <c r="AY1" s="1" t="s"/>
       <c r="AZ1" s="1" t="s"/>
-      <c r="BA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="BA1" s="1" t="s"/>
+      <c r="BB1" s="1" t="s"/>
+      <c r="BC1" s="1" t="s"/>
       <c r="BD1" s="1" t="s"/>
       <c r="BE1" s="1" t="s"/>
       <c r="BF1" s="1" t="s"/>
       <c r="BG1" s="1" t="s"/>
       <c r="BH1" s="1" t="s"/>
-      <c r="BI1" s="1" t="s"/>
-      <c r="BJ1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="BJ1" s="1" t="s"/>
       <c r="BK1" s="1" t="s"/>
       <c r="BL1" s="1" t="s"/>
       <c r="BM1" s="1" t="s"/>
@@ -1833,9 +1782,7 @@
       <c r="BT1" s="1" t="s"/>
       <c r="BU1" s="1" t="s"/>
       <c r="BV1" s="1" t="s"/>
-      <c r="BW1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="BW1" s="1" t="s"/>
       <c r="BX1" s="1" t="s"/>
       <c r="BY1" s="1" t="s"/>
       <c r="BZ1" s="1" t="s"/>
@@ -1852,56 +1799,54 @@
       <c r="CK1" s="1" t="s"/>
       <c r="CL1" s="1" t="s"/>
       <c r="CM1" s="1" t="s"/>
-      <c r="CN1" s="1" t="s"/>
+      <c r="CN1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="CO1" s="1" t="s"/>
       <c r="CP1" s="1" t="s"/>
       <c r="CQ1" s="1" t="s"/>
       <c r="CR1" s="1" t="s"/>
       <c r="CS1" s="1" t="s"/>
-      <c r="CT1" s="1" t="s"/>
+      <c r="CT1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="CU1" s="1" t="s"/>
       <c r="CV1" s="1" t="s"/>
-      <c r="CW1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="CW1" s="1" t="s"/>
       <c r="CX1" s="1" t="s"/>
       <c r="CY1" s="1" t="s"/>
       <c r="CZ1" s="1" t="s"/>
       <c r="DA1" s="1" t="s"/>
       <c r="DB1" s="1" t="s"/>
-      <c r="DC1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="DC1" s="1" t="s"/>
       <c r="DD1" s="1" t="s"/>
       <c r="DE1" s="1" t="s"/>
       <c r="DF1" s="1" t="s"/>
       <c r="DG1" s="1" t="s"/>
       <c r="DH1" s="1" t="s"/>
       <c r="DI1" s="1" t="s"/>
-      <c r="DJ1" s="1" t="s"/>
-      <c r="DK1" s="1" t="s"/>
-      <c r="DL1" s="1" t="s"/>
-      <c r="DM1" s="1" t="s"/>
+      <c r="DJ1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="DN1" s="1" t="s"/>
       <c r="DO1" s="1" t="s"/>
       <c r="DP1" s="1" t="s"/>
       <c r="DQ1" s="1" t="s"/>
       <c r="DR1" s="1" t="s"/>
-      <c r="DS1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="DS1" s="1" t="s"/>
+      <c r="DT1" s="1" t="s"/>
+      <c r="DU1" s="1" t="s"/>
+      <c r="DV1" s="1" t="s"/>
+      <c r="DW1" s="1" t="s"/>
       <c r="DX1" s="1" t="s"/>
       <c r="DY1" s="1" t="s"/>
       <c r="DZ1" s="1" t="s"/>
@@ -1909,7 +1854,9 @@
       <c r="EB1" s="1" t="s"/>
       <c r="EC1" s="1" t="s"/>
       <c r="ED1" s="1" t="s"/>
-      <c r="EE1" s="1" t="s"/>
+      <c r="EE1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="EF1" s="1" t="s"/>
       <c r="EG1" s="1" t="s"/>
       <c r="EH1" s="1" t="s"/>
@@ -1920,7 +1867,7 @@
       <c r="EM1" s="1" t="s"/>
       <c r="EN1" s="1" t="s"/>
       <c r="EO1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EP1" s="1" t="s"/>
       <c r="EQ1" s="1" t="s"/>
@@ -1931,10 +1878,10 @@
       <c r="EV1" s="1" t="s"/>
       <c r="EW1" s="1" t="s"/>
       <c r="EX1" s="1" t="s"/>
-      <c r="EY1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EZ1" s="1" t="s"/>
+      <c r="EY1" s="1" t="s"/>
+      <c r="EZ1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="FA1" s="1" t="s"/>
       <c r="FB1" s="1" t="s"/>
       <c r="FC1" s="1" t="s"/>
@@ -1944,11 +1891,11 @@
       <c r="FG1" s="1" t="s"/>
       <c r="FH1" s="1" t="s"/>
       <c r="FI1" s="1" t="s"/>
-      <c r="FJ1" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="FJ1" s="1" t="s"/>
       <c r="FK1" s="1" t="s"/>
-      <c r="FL1" s="1" t="s"/>
+      <c r="FL1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="FM1" s="1" t="s"/>
       <c r="FN1" s="1" t="s"/>
       <c r="FO1" s="1" t="s"/>
@@ -1958,13 +1905,9 @@
       <c r="FS1" s="1" t="s"/>
       <c r="FT1" s="1" t="s"/>
       <c r="FU1" s="1" t="s"/>
-      <c r="FV1" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="FV1" s="1" t="s"/>
       <c r="FW1" s="1" t="s"/>
-      <c r="FX1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="FX1" s="1" t="s"/>
       <c r="FY1" s="1" t="s"/>
       <c r="FZ1" s="1" t="s"/>
       <c r="GA1" s="1" t="s"/>
@@ -1999,95 +1942,101 @@
       <c r="HD1" s="1" t="s"/>
       <c r="HE1" s="1" t="s"/>
       <c r="HF1" s="1" t="s"/>
-      <c r="HG1" s="1" t="s">
+      <c r="HG1" s="1" t="s"/>
+      <c r="HH1" s="1" t="s"/>
+      <c r="HI1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="HL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="IA1" s="1" t="s"/>
+      <c r="IB1" s="1" t="s"/>
+      <c r="IC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="ID1" s="1" t="s"/>
+      <c r="IE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="IB1" s="1" t="s"/>
-      <c r="IC1" s="1" t="s"/>
-      <c r="ID1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="IE1" s="1" t="s"/>
-      <c r="IF1" s="1" t="s"/>
-      <c r="IG1" s="1" t="s"/>
-      <c r="IH1" s="1" t="s"/>
-      <c r="II1" s="1" t="s"/>
-      <c r="IJ1" s="1" t="s"/>
-      <c r="IK1" s="1" t="s"/>
-      <c r="IL1" s="1" t="s"/>
-      <c r="IM1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="IN1" s="1" t="s"/>
-      <c r="IO1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="IM1" s="1" t="s"/>
+      <c r="IN1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="IO1" s="1" t="s"/>
       <c r="IP1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="IQ1" s="1" t="s"/>
       <c r="IR1" s="1" t="s">
         <v>59</v>
       </c>
@@ -2100,151 +2049,124 @@
       <c r="IU1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="IV1" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="IV1" s="1" t="s"/>
       <c r="IW1" s="1" t="s"/>
-      <c r="IX1" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="IX1" s="1" t="s"/>
       <c r="IY1" s="1" t="s"/>
       <c r="IZ1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="JA1" s="1" t="s"/>
-      <c r="JB1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="JB1" s="1" t="s"/>
+      <c r="JC1" s="1" t="s"/>
+      <c r="JD1" s="1" t="s"/>
       <c r="JE1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="JF1" s="1" t="s"/>
       <c r="JG1" s="1" t="s"/>
       <c r="JH1" s="1" t="s"/>
       <c r="JI1" s="1" t="s"/>
-      <c r="JJ1" s="1" t="s"/>
-      <c r="JK1" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="JK1" s="1" t="s"/>
       <c r="JL1" s="1" t="s"/>
       <c r="JM1" s="1" t="s"/>
       <c r="JN1" s="1" t="s"/>
-      <c r="JO1" s="1" t="s"/>
+      <c r="JO1" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="JP1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="JQ1" s="1" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="JR1" s="1" t="s"/>
       <c r="JS1" s="1" t="s"/>
       <c r="JT1" s="1" t="s"/>
-      <c r="JU1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="JV1" s="1" t="s"/>
-      <c r="JW1" s="1" t="s"/>
+      <c r="JU1" s="1" t="s"/>
+      <c r="JV1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="JX1" s="1" t="s"/>
       <c r="JY1" s="1" t="s"/>
-      <c r="JZ1" s="1" t="s">
+      <c r="JZ1" s="1" t="s"/>
+      <c r="KA1" s="1" t="s"/>
+      <c r="KB1" s="1" t="s"/>
+      <c r="KC1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="KF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="KC1" s="1" t="s"/>
-      <c r="KD1" s="1" t="s"/>
-      <c r="KE1" s="1" t="s"/>
-      <c r="KF1" s="1" t="s"/>
-      <c r="KG1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="KI1" s="1" t="s"/>
-      <c r="KJ1" s="1" t="s"/>
-      <c r="KK1" s="1" t="s"/>
-      <c r="KL1" s="1" t="s"/>
-      <c r="KM1" s="1" t="s"/>
+      <c r="KK1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="KN1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="KO1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="KP1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="KQ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="KR1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KR1" s="1" t="s"/>
+      <c r="KS1" s="1" t="s"/>
+      <c r="KT1" s="1" t="s"/>
+      <c r="KU1" s="1" t="s"/>
+      <c r="KV1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="KX1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="KY1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="LA1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="KZ1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="LC1" s="1" t="s"/>
-      <c r="LD1" s="1" t="s"/>
-      <c r="LE1" s="1" t="s"/>
-      <c r="LF1" s="1" t="s"/>
-      <c r="LG1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="2" spans="1:324">
+    <row r="2" spans="1:313">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s"/>
@@ -2255,978 +2177,949 @@
       <c r="H2" s="1" t="s"/>
       <c r="I2" s="1" t="s"/>
       <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="FW2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FX2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="FY2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="GA2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="GB2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="GH2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GP2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="HC2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="HD2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="HE2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HF2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="HH2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="HI2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="HK2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HL2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HQ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HR2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HW2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HX2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HY2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="HZ2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IA2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IB2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="ID2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="IE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="IF2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="IG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="IH2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="II2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="IJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="IK2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="IL2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IM2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IN2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IO2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IP2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IQ2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IR2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="IS2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="IT2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="IU2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IV2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IW2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IX2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IY2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IZ2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="JA2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="JB2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="JC2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="JD2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JE2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JF2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JG2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JH2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JI2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JJ2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JK2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JL2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JM2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JN2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JO2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="JP2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="JQ2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="JR2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="JS2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="JT2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="JU2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="JV2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JX2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JY2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JZ2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="KA2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="KB2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="KC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="KD2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="KE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KF2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KH2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KI2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KJ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KK2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KL2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KM2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KN2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KO2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KP2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KQ2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="KR2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="KS2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="KT2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="KU2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FG2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="FW2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="FX2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="FY2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="FZ2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="GA2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="GB2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="GC2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="GM2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="GN2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="GO2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="GP2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GQ2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="GR2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="GS2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="GT2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="HD2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HE2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="HF2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="HG2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HH2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="HI2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HJ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HL2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HM2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HN2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HO2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HP2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HQ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HS2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HT2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HU2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HV2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HW2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HX2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HY2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HZ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IA2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="IB2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="IC2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="ID2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="IE2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="IF2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="IG2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="IH2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="II2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="IJ2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="IK2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="IL2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="IM2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="IN2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="IO2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IP2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IQ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IS2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IT2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="IU2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="IV2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="IW2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="IX2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="IY2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="IZ2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JA2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JB2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="JC2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="JD2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="JE2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="JF2" s="1" t="s">
+      <c r="KV2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KW2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KX2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KY2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="KZ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="LA2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:313">
+      <c r="A3" t="n">
+        <v>10565130884</v>
+      </c>
+      <c r="B3" t="n">
+        <v>226101601</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43525.67965277778</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>43525.68327546296</v>
+      </c>
+      <c r="E3" t="s">
         <v>275</v>
       </c>
-      <c r="JG2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JH2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JI2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JJ2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JK2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JL2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JM2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JN2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JO2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="JP2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="JQ2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="JR2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="JS2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="JT2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="JU2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="JV2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="JW2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="JX2" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="JY2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="JZ2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="KA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KB2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="KC2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="KD2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="KE2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="KF2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="KG2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KH2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KI2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KJ2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KK2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KL2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KM2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KN2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="KO2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="KP2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KQ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KS2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KT2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KU2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KV2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KW2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KX2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KY2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KZ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LB2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="LC2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="LD2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="LE2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="LF2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="LG2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LH2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LI2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LJ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LL2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:324">
-      <c r="A3" t="n">
-        <v>10561795833</v>
-      </c>
-      <c r="B3" t="n">
-        <v>226208327</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>43524.31451388889</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>43524.40616898148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" t="s">
-        <v>302</v>
-      </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" t="s">
+        <v>277</v>
+      </c>
       <c r="L3" t="s"/>
       <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3246,21 +3139,31 @@
       <c r="AE3" t="s"/>
       <c r="AF3" t="s"/>
       <c r="AG3" t="s"/>
-      <c r="AH3" t="s"/>
+      <c r="AH3" t="s">
+        <v>278</v>
+      </c>
       <c r="AI3" t="s"/>
       <c r="AJ3" t="s"/>
       <c r="AK3" t="s"/>
       <c r="AL3" t="s"/>
-      <c r="AM3" t="s"/>
-      <c r="AN3" t="s"/>
-      <c r="AO3" t="s"/>
+      <c r="AM3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>109</v>
+      </c>
       <c r="AP3" t="s"/>
       <c r="AQ3" t="s"/>
       <c r="AR3" t="s"/>
       <c r="AS3" t="s"/>
       <c r="AT3" t="s"/>
       <c r="AU3" t="s"/>
-      <c r="AV3" t="s"/>
+      <c r="AV3" t="s">
+        <v>114</v>
+      </c>
       <c r="AW3" t="s"/>
       <c r="AX3" t="s"/>
       <c r="AY3" t="s"/>
@@ -3273,7 +3176,9 @@
       <c r="BF3" t="s"/>
       <c r="BG3" t="s"/>
       <c r="BH3" t="s"/>
-      <c r="BI3" t="s"/>
+      <c r="BI3" t="s">
+        <v>125</v>
+      </c>
       <c r="BJ3" t="s"/>
       <c r="BK3" t="s"/>
       <c r="BL3" t="s"/>
@@ -3304,7 +3209,9 @@
       <c r="CK3" t="s"/>
       <c r="CL3" t="s"/>
       <c r="CM3" t="s"/>
-      <c r="CN3" t="s"/>
+      <c r="CN3" t="s">
+        <v>155</v>
+      </c>
       <c r="CO3" t="s"/>
       <c r="CP3" t="s"/>
       <c r="CQ3" t="s"/>
@@ -3314,7 +3221,9 @@
       <c r="CU3" t="s"/>
       <c r="CV3" t="s"/>
       <c r="CW3" t="s"/>
-      <c r="CX3" t="s"/>
+      <c r="CX3" t="s">
+        <v>163</v>
+      </c>
       <c r="CY3" t="s"/>
       <c r="CZ3" t="s"/>
       <c r="DA3" t="s"/>
@@ -3326,8 +3235,12 @@
       <c r="DG3" t="s"/>
       <c r="DH3" t="s"/>
       <c r="DI3" t="s"/>
-      <c r="DJ3" t="s"/>
-      <c r="DK3" t="s"/>
+      <c r="DJ3" t="s">
+        <v>277</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>277</v>
+      </c>
       <c r="DL3" t="s"/>
       <c r="DM3" t="s"/>
       <c r="DN3" t="s"/>
@@ -3336,7 +3249,9 @@
       <c r="DQ3" t="s"/>
       <c r="DR3" t="s"/>
       <c r="DS3" t="s"/>
-      <c r="DT3" t="s"/>
+      <c r="DT3" t="s">
+        <v>180</v>
+      </c>
       <c r="DU3" t="s"/>
       <c r="DV3" t="s"/>
       <c r="DW3" t="s"/>
@@ -3348,7 +3263,9 @@
       <c r="EC3" t="s"/>
       <c r="ED3" t="s"/>
       <c r="EE3" t="s"/>
-      <c r="EF3" t="s"/>
+      <c r="EF3" t="s">
+        <v>190</v>
+      </c>
       <c r="EG3" t="s"/>
       <c r="EH3" t="s"/>
       <c r="EI3" t="s"/>
@@ -3361,14 +3278,18 @@
       <c r="EP3" t="s"/>
       <c r="EQ3" t="s"/>
       <c r="ER3" t="s"/>
-      <c r="ES3" t="s"/>
+      <c r="ES3" t="s">
+        <v>201</v>
+      </c>
       <c r="ET3" t="s"/>
       <c r="EU3" t="s"/>
       <c r="EV3" t="s"/>
       <c r="EW3" t="s"/>
       <c r="EX3" t="s"/>
       <c r="EY3" t="s"/>
-      <c r="EZ3" t="s"/>
+      <c r="EZ3" t="s">
+        <v>205</v>
+      </c>
       <c r="FA3" t="s"/>
       <c r="FB3" t="s"/>
       <c r="FC3" t="s"/>
@@ -3429,10 +3350,18 @@
       <c r="HF3" t="s"/>
       <c r="HG3" t="s"/>
       <c r="HH3" t="s"/>
-      <c r="HI3" t="s"/>
-      <c r="HJ3" t="s"/>
-      <c r="HK3" t="s"/>
-      <c r="HL3" t="s"/>
+      <c r="HI3" t="s">
+        <v>276</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>280</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>277</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>277</v>
+      </c>
       <c r="HM3" t="s"/>
       <c r="HN3" t="s"/>
       <c r="HO3" t="s"/>
@@ -3449,7 +3378,9 @@
       <c r="HZ3" t="s"/>
       <c r="IA3" t="s"/>
       <c r="IB3" t="s"/>
-      <c r="IC3" t="s"/>
+      <c r="IC3" t="s">
+        <v>281</v>
+      </c>
       <c r="ID3" t="s"/>
       <c r="IE3" t="s"/>
       <c r="IF3" t="s"/>
@@ -3526,42 +3457,35 @@
       <c r="KY3" t="s"/>
       <c r="KZ3" t="s"/>
       <c r="LA3" t="s"/>
-      <c r="LB3" t="s"/>
-      <c r="LC3" t="s"/>
-      <c r="LD3" t="s"/>
-      <c r="LE3" t="s"/>
-      <c r="LF3" t="s"/>
-      <c r="LG3" t="s"/>
-      <c r="LH3" t="s"/>
-      <c r="LI3" t="s"/>
-      <c r="LJ3" t="s"/>
-      <c r="LK3" t="s"/>
-      <c r="LL3" t="s"/>
     </row>
-    <row r="4" spans="1:324">
+    <row r="4" spans="1:313">
       <c r="A4" t="n">
-        <v>10560120963</v>
+        <v>10561795833</v>
       </c>
       <c r="B4" t="n">
         <v>226208327</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43523.73165509259</v>
+        <v>43524.31451388889</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43523.73173611111</v>
+        <v>43528.52388888889</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
+      <c r="J4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K4" t="s">
+        <v>285</v>
+      </c>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
@@ -3573,7 +3497,9 @@
       <c r="T4" t="s"/>
       <c r="U4" t="s"/>
       <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
+      <c r="W4" t="s">
+        <v>286</v>
+      </c>
       <c r="X4" t="s"/>
       <c r="Y4" t="s"/>
       <c r="Z4" t="s"/>
@@ -3584,16 +3510,24 @@
       <c r="AE4" t="s"/>
       <c r="AF4" t="s"/>
       <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
+      <c r="AH4" t="s">
+        <v>287</v>
+      </c>
       <c r="AI4" t="s"/>
       <c r="AJ4" t="s"/>
       <c r="AK4" t="s"/>
       <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
+      <c r="AM4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>289</v>
+      </c>
       <c r="AO4" t="s"/>
       <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
+      <c r="AQ4" t="s">
+        <v>111</v>
+      </c>
       <c r="AR4" t="s"/>
       <c r="AS4" t="s"/>
       <c r="AT4" t="s"/>
@@ -3608,7 +3542,9 @@
       <c r="BC4" t="s"/>
       <c r="BD4" t="s"/>
       <c r="BE4" t="s"/>
-      <c r="BF4" t="s"/>
+      <c r="BF4" t="s">
+        <v>124</v>
+      </c>
       <c r="BG4" t="s"/>
       <c r="BH4" t="s"/>
       <c r="BI4" t="s"/>
@@ -3637,7 +3573,9 @@
       <c r="CF4" t="s"/>
       <c r="CG4" t="s"/>
       <c r="CH4" t="s"/>
-      <c r="CI4" t="s"/>
+      <c r="CI4" t="s">
+        <v>151</v>
+      </c>
       <c r="CJ4" t="s"/>
       <c r="CK4" t="s"/>
       <c r="CL4" t="s"/>
@@ -3646,7 +3584,9 @@
       <c r="CO4" t="s"/>
       <c r="CP4" t="s"/>
       <c r="CQ4" t="s"/>
-      <c r="CR4" t="s"/>
+      <c r="CR4" t="s">
+        <v>101</v>
+      </c>
       <c r="CS4" t="s"/>
       <c r="CT4" t="s"/>
       <c r="CU4" t="s"/>
@@ -3662,9 +3602,13 @@
       <c r="DE4" t="s"/>
       <c r="DF4" t="s"/>
       <c r="DG4" t="s"/>
-      <c r="DH4" t="s"/>
+      <c r="DH4" t="s">
+        <v>101</v>
+      </c>
       <c r="DI4" t="s"/>
-      <c r="DJ4" t="s"/>
+      <c r="DJ4" t="s">
+        <v>290</v>
+      </c>
       <c r="DK4" t="s"/>
       <c r="DL4" t="s"/>
       <c r="DM4" t="s"/>
@@ -3675,7 +3619,9 @@
       <c r="DR4" t="s"/>
       <c r="DS4" t="s"/>
       <c r="DT4" t="s"/>
-      <c r="DU4" t="s"/>
+      <c r="DU4" t="s">
+        <v>181</v>
+      </c>
       <c r="DV4" t="s"/>
       <c r="DW4" t="s"/>
       <c r="DX4" t="s"/>
@@ -3692,7 +3638,9 @@
       <c r="EI4" t="s"/>
       <c r="EJ4" t="s"/>
       <c r="EK4" t="s"/>
-      <c r="EL4" t="s"/>
+      <c r="EL4" t="s">
+        <v>196</v>
+      </c>
       <c r="EM4" t="s"/>
       <c r="EN4" t="s"/>
       <c r="EO4" t="s"/>
@@ -3704,7 +3652,9 @@
       <c r="EU4" t="s"/>
       <c r="EV4" t="s"/>
       <c r="EW4" t="s"/>
-      <c r="EX4" t="s"/>
+      <c r="EX4" t="s">
+        <v>101</v>
+      </c>
       <c r="EY4" t="s"/>
       <c r="EZ4" t="s"/>
       <c r="FA4" t="s"/>
@@ -3716,7 +3666,9 @@
       <c r="FG4" t="s"/>
       <c r="FH4" t="s"/>
       <c r="FI4" t="s"/>
-      <c r="FJ4" t="s"/>
+      <c r="FJ4" t="s">
+        <v>101</v>
+      </c>
       <c r="FK4" t="s"/>
       <c r="FL4" t="s"/>
       <c r="FM4" t="s"/>
@@ -3768,7 +3720,9 @@
       <c r="HG4" t="s"/>
       <c r="HH4" t="s"/>
       <c r="HI4" t="s"/>
-      <c r="HJ4" t="s"/>
+      <c r="HJ4" t="s">
+        <v>291</v>
+      </c>
       <c r="HK4" t="s"/>
       <c r="HL4" t="s"/>
       <c r="HM4" t="s"/>
@@ -3787,24 +3741,46 @@
       <c r="HZ4" t="s"/>
       <c r="IA4" t="s"/>
       <c r="IB4" t="s"/>
-      <c r="IC4" t="s"/>
+      <c r="IC4" t="s">
+        <v>292</v>
+      </c>
       <c r="ID4" t="s"/>
       <c r="IE4" t="s"/>
       <c r="IF4" t="s"/>
-      <c r="IG4" t="s"/>
-      <c r="IH4" t="s"/>
-      <c r="II4" t="s"/>
-      <c r="IJ4" t="s"/>
-      <c r="IK4" t="s"/>
-      <c r="IL4" t="s"/>
-      <c r="IM4" t="s"/>
+      <c r="IG4" t="s">
+        <v>293</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>294</v>
+      </c>
+      <c r="II4" t="s">
+        <v>295</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>296</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>297</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>298</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>299</v>
+      </c>
       <c r="IN4" t="s"/>
       <c r="IO4" t="s"/>
       <c r="IP4" t="s"/>
       <c r="IQ4" t="s"/>
-      <c r="IR4" t="s"/>
-      <c r="IS4" t="s"/>
-      <c r="IT4" t="s"/>
+      <c r="IR4" t="s">
+        <v>300</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>301</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>302</v>
+      </c>
       <c r="IU4" t="s"/>
       <c r="IV4" t="s"/>
       <c r="IW4" t="s"/>
@@ -3825,7 +3801,9 @@
       <c r="JL4" t="s"/>
       <c r="JM4" t="s"/>
       <c r="JN4" t="s"/>
-      <c r="JO4" t="s"/>
+      <c r="JO4" t="s">
+        <v>302</v>
+      </c>
       <c r="JP4" t="s"/>
       <c r="JQ4" t="s"/>
       <c r="JR4" t="s"/>
@@ -3839,8 +3817,12 @@
       <c r="JZ4" t="s"/>
       <c r="KA4" t="s"/>
       <c r="KB4" t="s"/>
-      <c r="KC4" t="s"/>
-      <c r="KD4" t="s"/>
+      <c r="KC4" t="s">
+        <v>303</v>
+      </c>
+      <c r="KD4" t="s">
+        <v>303</v>
+      </c>
       <c r="KE4" t="s"/>
       <c r="KF4" t="s"/>
       <c r="KG4" t="s"/>
@@ -3853,7 +3835,9 @@
       <c r="KN4" t="s"/>
       <c r="KO4" t="s"/>
       <c r="KP4" t="s"/>
-      <c r="KQ4" t="s"/>
+      <c r="KQ4" t="s">
+        <v>287</v>
+      </c>
       <c r="KR4" t="s"/>
       <c r="KS4" t="s"/>
       <c r="KT4" t="s"/>
@@ -3864,36 +3848,25 @@
       <c r="KY4" t="s"/>
       <c r="KZ4" t="s"/>
       <c r="LA4" t="s"/>
-      <c r="LB4" t="s"/>
-      <c r="LC4" t="s"/>
-      <c r="LD4" t="s"/>
-      <c r="LE4" t="s"/>
-      <c r="LF4" t="s"/>
-      <c r="LG4" t="s"/>
-      <c r="LH4" t="s"/>
-      <c r="LI4" t="s"/>
-      <c r="LJ4" t="s"/>
-      <c r="LK4" t="s"/>
-      <c r="LL4" t="s"/>
     </row>
-    <row r="5" spans="1:324">
+    <row r="5" spans="1:313">
       <c r="A5" t="n">
-        <v>10560048700</v>
+        <v>10560120963</v>
       </c>
       <c r="B5" t="n">
         <v>226208327</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43523.69865740741</v>
+        <v>43523.73165509259</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43523.69883101852</v>
+        <v>43523.73173611111</v>
       </c>
       <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
         <v>305</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
@@ -4202,48 +4175,33 @@
       <c r="KY5" t="s"/>
       <c r="KZ5" t="s"/>
       <c r="LA5" t="s"/>
-      <c r="LB5" t="s"/>
-      <c r="LC5" t="s"/>
-      <c r="LD5" t="s"/>
-      <c r="LE5" t="s"/>
-      <c r="LF5" t="s"/>
-      <c r="LG5" t="s"/>
-      <c r="LH5" t="s"/>
-      <c r="LI5" t="s"/>
-      <c r="LJ5" t="s"/>
-      <c r="LK5" t="s"/>
-      <c r="LL5" t="s"/>
     </row>
-    <row r="6" spans="1:324">
+    <row r="6" spans="1:313">
       <c r="A6" t="n">
-        <v>10551569639</v>
+        <v>10560048700</v>
       </c>
       <c r="B6" t="n">
-        <v>226101601</v>
+        <v>226208327</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43520.39091435185</v>
+        <v>43523.69865740741</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43520.42805555555</v>
+        <v>43523.69883101852</v>
       </c>
       <c r="E6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" t="s">
         <v>307</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
-      <c r="J6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K6" t="s">
-        <v>309</v>
-      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
       <c r="L6" t="s"/>
-      <c r="M6" t="s">
-        <v>100</v>
-      </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4252,32 +4210,18 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-      <c r="V6" t="s">
-        <v>310</v>
-      </c>
-      <c r="W6" t="s">
-        <v>311</v>
-      </c>
-      <c r="X6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>313</v>
-      </c>
+      <c r="V6" t="s"/>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
       <c r="Z6" t="s"/>
-      <c r="AA6" t="s">
-        <v>314</v>
-      </c>
+      <c r="AA6" t="s"/>
       <c r="AB6" t="s"/>
-      <c r="AC6" t="s">
-        <v>116</v>
-      </c>
+      <c r="AC6" t="s"/>
       <c r="AD6" t="s"/>
       <c r="AE6" t="s"/>
       <c r="AF6" t="s"/>
-      <c r="AG6" t="s">
-        <v>315</v>
-      </c>
+      <c r="AG6" t="s"/>
       <c r="AH6" t="s"/>
       <c r="AI6" t="s"/>
       <c r="AJ6" t="s"/>
@@ -4289,9 +4233,7 @@
       <c r="AP6" t="s"/>
       <c r="AQ6" t="s"/>
       <c r="AR6" t="s"/>
-      <c r="AS6" t="s">
-        <v>131</v>
-      </c>
+      <c r="AS6" t="s"/>
       <c r="AT6" t="s"/>
       <c r="AU6" t="s"/>
       <c r="AV6" t="s"/>
@@ -4299,20 +4241,12 @@
       <c r="AX6" t="s"/>
       <c r="AY6" t="s"/>
       <c r="AZ6" t="s"/>
-      <c r="BA6" t="s">
-        <v>315</v>
-      </c>
+      <c r="BA6" t="s"/>
       <c r="BB6" t="s"/>
-      <c r="BC6" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>140</v>
-      </c>
+      <c r="BC6" t="s"/>
+      <c r="BD6" t="s"/>
       <c r="BE6" t="s"/>
-      <c r="BF6" t="s">
-        <v>142</v>
-      </c>
+      <c r="BF6" t="s"/>
       <c r="BG6" t="s"/>
       <c r="BH6" t="s"/>
       <c r="BI6" t="s"/>
@@ -4321,17 +4255,11 @@
       <c r="BL6" t="s"/>
       <c r="BM6" t="s"/>
       <c r="BN6" t="s"/>
-      <c r="BO6" t="s">
-        <v>149</v>
-      </c>
+      <c r="BO6" t="s"/>
       <c r="BP6" t="s"/>
-      <c r="BQ6" t="s">
-        <v>151</v>
-      </c>
+      <c r="BQ6" t="s"/>
       <c r="BR6" t="s"/>
-      <c r="BS6" t="s">
-        <v>153</v>
-      </c>
+      <c r="BS6" t="s"/>
       <c r="BT6" t="s"/>
       <c r="BU6" t="s"/>
       <c r="BV6" t="s"/>
@@ -4358,64 +4286,34 @@
       <c r="CQ6" t="s"/>
       <c r="CR6" t="s"/>
       <c r="CS6" t="s"/>
-      <c r="CT6" t="s">
-        <v>178</v>
-      </c>
+      <c r="CT6" t="s"/>
       <c r="CU6" t="s"/>
-      <c r="CV6" t="s">
-        <v>316</v>
-      </c>
+      <c r="CV6" t="s"/>
       <c r="CW6" t="s"/>
       <c r="CX6" t="s"/>
       <c r="CY6" t="s"/>
       <c r="CZ6" t="s"/>
-      <c r="DA6" t="s">
-        <v>107</v>
-      </c>
+      <c r="DA6" t="s"/>
       <c r="DB6" t="s"/>
-      <c r="DC6" t="s">
-        <v>184</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>186</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>187</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>189</v>
-      </c>
+      <c r="DC6" t="s"/>
+      <c r="DD6" t="s"/>
+      <c r="DE6" t="s"/>
+      <c r="DF6" t="s"/>
+      <c r="DG6" t="s"/>
+      <c r="DH6" t="s"/>
       <c r="DI6" t="s"/>
       <c r="DJ6" t="s"/>
-      <c r="DK6" t="s">
-        <v>192</v>
-      </c>
+      <c r="DK6" t="s"/>
       <c r="DL6" t="s"/>
       <c r="DM6" t="s"/>
       <c r="DN6" t="s"/>
       <c r="DO6" t="s"/>
-      <c r="DP6" t="s">
-        <v>197</v>
-      </c>
+      <c r="DP6" t="s"/>
       <c r="DQ6" t="s"/>
-      <c r="DR6" t="s">
-        <v>317</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>318</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>319</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>320</v>
-      </c>
+      <c r="DR6" t="s"/>
+      <c r="DS6" t="s"/>
+      <c r="DT6" t="s"/>
+      <c r="DU6" t="s"/>
       <c r="DV6" t="s"/>
       <c r="DW6" t="s"/>
       <c r="DX6" t="s"/>
@@ -4433,29 +4331,15 @@
       <c r="EJ6" t="s"/>
       <c r="EK6" t="s"/>
       <c r="EL6" t="s"/>
-      <c r="EM6" t="s">
-        <v>107</v>
-      </c>
+      <c r="EM6" t="s"/>
       <c r="EN6" t="s"/>
-      <c r="EO6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>215</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>216</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>217</v>
-      </c>
+      <c r="EO6" t="s"/>
+      <c r="EP6" t="s"/>
+      <c r="EQ6" t="s"/>
+      <c r="ER6" t="s"/>
       <c r="ES6" t="s"/>
-      <c r="ET6" t="s">
-        <v>219</v>
-      </c>
-      <c r="EU6" t="s">
-        <v>220</v>
-      </c>
+      <c r="ET6" t="s"/>
+      <c r="EU6" t="s"/>
       <c r="EV6" t="s"/>
       <c r="EW6" t="s"/>
       <c r="EX6" t="s"/>
@@ -4468,39 +4352,21 @@
       <c r="FE6" t="s"/>
       <c r="FF6" t="s"/>
       <c r="FG6" t="s"/>
-      <c r="FH6" t="s">
-        <v>107</v>
-      </c>
+      <c r="FH6" t="s"/>
       <c r="FI6" t="s"/>
       <c r="FJ6" t="s"/>
       <c r="FK6" t="s"/>
-      <c r="FL6" t="s">
-        <v>233</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>234</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>235</v>
-      </c>
+      <c r="FL6" t="s"/>
+      <c r="FM6" t="s"/>
+      <c r="FN6" t="s"/>
       <c r="FO6" t="s"/>
-      <c r="FP6" t="s">
-        <v>237</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>238</v>
-      </c>
-      <c r="FR6" t="s">
-        <v>239</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>240</v>
-      </c>
+      <c r="FP6" t="s"/>
+      <c r="FQ6" t="s"/>
+      <c r="FR6" t="s"/>
+      <c r="FS6" t="s"/>
       <c r="FT6" t="s"/>
       <c r="FU6" t="s"/>
-      <c r="FV6" t="s">
-        <v>225</v>
-      </c>
+      <c r="FV6" t="s"/>
       <c r="FW6" t="s"/>
       <c r="FX6" t="s"/>
       <c r="FY6" t="s"/>
@@ -4529,9 +4395,7 @@
       <c r="GV6" t="s"/>
       <c r="GW6" t="s"/>
       <c r="GX6" t="s"/>
-      <c r="GY6" t="s">
-        <v>225</v>
-      </c>
+      <c r="GY6" t="s"/>
       <c r="GZ6" t="s"/>
       <c r="HA6" t="s"/>
       <c r="HB6" t="s"/>
@@ -4539,27 +4403,13 @@
       <c r="HD6" t="s"/>
       <c r="HE6" t="s"/>
       <c r="HF6" t="s"/>
-      <c r="HG6" t="s">
-        <v>321</v>
-      </c>
-      <c r="HH6" t="s">
-        <v>322</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>323</v>
-      </c>
-      <c r="HJ6" t="s">
-        <v>324</v>
-      </c>
-      <c r="HK6" t="s">
-        <v>325</v>
-      </c>
-      <c r="HL6" t="s">
-        <v>326</v>
-      </c>
-      <c r="HM6" t="s">
-        <v>327</v>
-      </c>
+      <c r="HG6" t="s"/>
+      <c r="HH6" t="s"/>
+      <c r="HI6" t="s"/>
+      <c r="HJ6" t="s"/>
+      <c r="HK6" t="s"/>
+      <c r="HL6" t="s"/>
+      <c r="HM6" t="s"/>
       <c r="HN6" t="s"/>
       <c r="HO6" t="s"/>
       <c r="HP6" t="s"/>
@@ -4581,298 +4431,191 @@
       <c r="IF6" t="s"/>
       <c r="IG6" t="s"/>
       <c r="IH6" t="s"/>
-      <c r="II6" t="s">
-        <v>100</v>
-      </c>
-      <c r="IJ6" t="s">
-        <v>272</v>
-      </c>
+      <c r="II6" t="s"/>
+      <c r="IJ6" t="s"/>
       <c r="IK6" t="s"/>
       <c r="IL6" t="s"/>
-      <c r="IM6" t="s">
-        <v>328</v>
-      </c>
+      <c r="IM6" t="s"/>
       <c r="IN6" t="s"/>
       <c r="IO6" t="s"/>
       <c r="IP6" t="s"/>
-      <c r="IQ6" t="s">
-        <v>329</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>330</v>
-      </c>
-      <c r="IS6" t="s">
-        <v>331</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>332</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>333</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>334</v>
-      </c>
-      <c r="IW6" t="s">
-        <v>335</v>
-      </c>
-      <c r="IX6" t="s">
-        <v>336</v>
-      </c>
-      <c r="IY6" t="s">
-        <v>337</v>
-      </c>
+      <c r="IQ6" t="s"/>
+      <c r="IR6" t="s"/>
+      <c r="IS6" t="s"/>
+      <c r="IT6" t="s"/>
+      <c r="IU6" t="s"/>
+      <c r="IV6" t="s"/>
+      <c r="IW6" t="s"/>
+      <c r="IX6" t="s"/>
+      <c r="IY6" t="s"/>
       <c r="IZ6" t="s"/>
       <c r="JA6" t="s"/>
-      <c r="JB6" t="s">
-        <v>338</v>
-      </c>
-      <c r="JC6" t="s">
-        <v>339</v>
-      </c>
-      <c r="JD6" t="s">
-        <v>340</v>
-      </c>
-      <c r="JE6" t="s">
-        <v>341</v>
-      </c>
-      <c r="JF6" t="s">
-        <v>342</v>
-      </c>
-      <c r="JG6" t="s">
-        <v>220</v>
-      </c>
+      <c r="JB6" t="s"/>
+      <c r="JC6" t="s"/>
+      <c r="JD6" t="s"/>
+      <c r="JE6" t="s"/>
+      <c r="JF6" t="s"/>
+      <c r="JG6" t="s"/>
       <c r="JH6" t="s"/>
       <c r="JI6" t="s"/>
       <c r="JJ6" t="s"/>
-      <c r="JK6" t="n">
-        <v>2</v>
-      </c>
-      <c r="JL6" t="n">
-        <v>5</v>
-      </c>
+      <c r="JK6" t="s"/>
+      <c r="JL6" t="s"/>
       <c r="JM6" t="s"/>
       <c r="JN6" t="s"/>
       <c r="JO6" t="s"/>
-      <c r="JP6" t="n">
-        <v>16</v>
-      </c>
-      <c r="JQ6" t="n">
-        <v>52</v>
-      </c>
+      <c r="JP6" t="s"/>
+      <c r="JQ6" t="s"/>
       <c r="JR6" t="s"/>
       <c r="JS6" t="s"/>
       <c r="JT6" t="s"/>
-      <c r="JU6" t="s">
-        <v>343</v>
-      </c>
-      <c r="JV6" t="s">
-        <v>344</v>
-      </c>
+      <c r="JU6" t="s"/>
+      <c r="JV6" t="s"/>
       <c r="JW6" t="s"/>
       <c r="JX6" t="s"/>
       <c r="JY6" t="s"/>
-      <c r="JZ6" t="s">
-        <v>341</v>
-      </c>
-      <c r="KA6" t="s">
-        <v>345</v>
-      </c>
-      <c r="KB6" t="s">
-        <v>346</v>
-      </c>
-      <c r="KC6" t="s">
-        <v>347</v>
-      </c>
+      <c r="JZ6" t="s"/>
+      <c r="KA6" t="s"/>
+      <c r="KB6" t="s"/>
+      <c r="KC6" t="s"/>
       <c r="KD6" t="s"/>
       <c r="KE6" t="s"/>
       <c r="KF6" t="s"/>
-      <c r="KG6" t="s">
-        <v>348</v>
-      </c>
-      <c r="KH6" t="s">
-        <v>349</v>
-      </c>
+      <c r="KG6" t="s"/>
+      <c r="KH6" t="s"/>
       <c r="KI6" t="s"/>
       <c r="KJ6" t="s"/>
-      <c r="KK6" t="s">
-        <v>349</v>
-      </c>
+      <c r="KK6" t="s"/>
       <c r="KL6" t="s"/>
       <c r="KM6" t="s"/>
-      <c r="KN6" t="s">
-        <v>341</v>
-      </c>
-      <c r="KO6" t="s">
-        <v>350</v>
-      </c>
+      <c r="KN6" t="s"/>
+      <c r="KO6" t="s"/>
       <c r="KP6" t="s"/>
-      <c r="KQ6" t="s">
-        <v>351</v>
-      </c>
-      <c r="KR6" t="s">
-        <v>352</v>
-      </c>
+      <c r="KQ6" t="s"/>
+      <c r="KR6" t="s"/>
       <c r="KS6" t="s"/>
-      <c r="KT6" t="s">
-        <v>353</v>
-      </c>
-      <c r="KU6" t="s">
-        <v>354</v>
-      </c>
+      <c r="KT6" t="s"/>
+      <c r="KU6" t="s"/>
       <c r="KV6" t="s"/>
       <c r="KW6" t="s"/>
       <c r="KX6" t="s"/>
       <c r="KY6" t="s"/>
       <c r="KZ6" t="s"/>
       <c r="LA6" t="s"/>
-      <c r="LB6" t="s">
-        <v>355</v>
-      </c>
-      <c r="LC6" t="s">
-        <v>356</v>
-      </c>
-      <c r="LD6" t="s"/>
-      <c r="LE6" t="s"/>
-      <c r="LF6" t="s"/>
-      <c r="LG6" t="s"/>
-      <c r="LH6" t="s"/>
-      <c r="LI6" t="s"/>
-      <c r="LJ6" t="s"/>
-      <c r="LK6" t="s"/>
-      <c r="LL6" t="s">
-        <v>357</v>
-      </c>
     </row>
-    <row r="7" spans="1:324">
+    <row r="7" spans="1:313">
       <c r="A7" t="n">
-        <v>10549086762</v>
+        <v>10551569639</v>
       </c>
       <c r="B7" t="n">
-        <v>226208327</v>
+        <v>226101601</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43518.48881944444</v>
+        <v>43520.39091435185</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43524.4716087963</v>
+        <v>43525.04221064815</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" t="s">
-        <v>359</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s"/>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="L7" t="s"/>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
+      <c r="M7" t="s"/>
       <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s">
-        <v>362</v>
-      </c>
-      <c r="V7" t="s">
-        <v>363</v>
-      </c>
-      <c r="W7" t="s">
-        <v>364</v>
-      </c>
-      <c r="X7" t="s">
-        <v>365</v>
-      </c>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
-      <c r="AA7" t="s">
-        <v>366</v>
-      </c>
+      <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
-      <c r="AC7" t="s">
-        <v>116</v>
-      </c>
+      <c r="AC7" t="s"/>
       <c r="AD7" t="s"/>
       <c r="AE7" t="s"/>
       <c r="AF7" t="s"/>
       <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
+      <c r="AH7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>314</v>
+      </c>
       <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR7" t="s"/>
+      <c r="AM7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ7" t="s"/>
+      <c r="AR7" t="s">
+        <v>112</v>
+      </c>
       <c r="AS7" t="s"/>
       <c r="AT7" t="s"/>
       <c r="AU7" t="s"/>
-      <c r="AV7" t="s">
-        <v>134</v>
-      </c>
+      <c r="AV7" t="s"/>
       <c r="AW7" t="s"/>
       <c r="AX7" t="s"/>
       <c r="AY7" t="s"/>
       <c r="AZ7" t="s"/>
       <c r="BA7" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>368</v>
-      </c>
-      <c r="BC7" t="s"/>
-      <c r="BD7" t="s">
-        <v>140</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="BB7" t="s"/>
+      <c r="BC7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD7" t="s"/>
       <c r="BE7" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>142</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="BF7" t="s"/>
       <c r="BG7" t="s"/>
       <c r="BH7" t="s"/>
       <c r="BI7" t="s"/>
       <c r="BJ7" t="s"/>
       <c r="BK7" t="s"/>
       <c r="BL7" t="s"/>
-      <c r="BM7" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>148</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>149</v>
-      </c>
+      <c r="BM7" t="s"/>
+      <c r="BN7" t="s"/>
+      <c r="BO7" t="s"/>
       <c r="BP7" t="s"/>
       <c r="BQ7" t="s"/>
-      <c r="BR7" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>153</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>154</v>
-      </c>
+      <c r="BR7" t="s"/>
+      <c r="BS7" t="s"/>
+      <c r="BT7" t="s"/>
       <c r="BU7" t="s"/>
       <c r="BV7" t="s"/>
       <c r="BW7" t="s"/>
@@ -4889,92 +4632,106 @@
       <c r="CH7" t="s"/>
       <c r="CI7" t="s"/>
       <c r="CJ7" t="s"/>
-      <c r="CK7" t="s"/>
+      <c r="CK7" t="s">
+        <v>153</v>
+      </c>
       <c r="CL7" t="s"/>
-      <c r="CM7" t="s"/>
+      <c r="CM7" t="s">
+        <v>317</v>
+      </c>
       <c r="CN7" t="s"/>
-      <c r="CO7" t="s">
-        <v>173</v>
-      </c>
+      <c r="CO7" t="s"/>
       <c r="CP7" t="s"/>
       <c r="CQ7" t="s"/>
-      <c r="CR7" t="s"/>
+      <c r="CR7" t="s">
+        <v>101</v>
+      </c>
       <c r="CS7" t="s"/>
-      <c r="CT7" t="s"/>
-      <c r="CU7" t="s"/>
+      <c r="CT7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>160</v>
+      </c>
       <c r="CV7" t="s">
-        <v>369</v>
-      </c>
-      <c r="CW7" t="s"/>
-      <c r="CX7" t="s"/>
-      <c r="CY7" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>164</v>
+      </c>
       <c r="CZ7" t="s"/>
-      <c r="DA7" t="s">
-        <v>107</v>
-      </c>
-      <c r="DB7" t="s"/>
+      <c r="DA7" t="s"/>
+      <c r="DB7" t="s">
+        <v>167</v>
+      </c>
       <c r="DC7" t="s"/>
       <c r="DD7" t="s"/>
       <c r="DE7" t="s"/>
       <c r="DF7" t="s"/>
-      <c r="DG7" t="s"/>
+      <c r="DG7" t="s">
+        <v>172</v>
+      </c>
       <c r="DH7" t="s"/>
-      <c r="DI7" t="s"/>
-      <c r="DJ7" t="s"/>
-      <c r="DK7" t="s"/>
+      <c r="DI7" t="s">
+        <v>318</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>319</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>320</v>
+      </c>
       <c r="DL7" t="s"/>
       <c r="DM7" t="s"/>
       <c r="DN7" t="s"/>
       <c r="DO7" t="s"/>
       <c r="DP7" t="s"/>
       <c r="DQ7" t="s"/>
-      <c r="DR7" t="s">
-        <v>370</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>371</v>
-      </c>
-      <c r="DT7" t="s">
-        <v>372</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>373</v>
-      </c>
+      <c r="DR7" t="s"/>
+      <c r="DS7" t="s"/>
+      <c r="DT7" t="s"/>
+      <c r="DU7" t="s"/>
       <c r="DV7" t="s"/>
-      <c r="DW7" t="s">
-        <v>198</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>199</v>
-      </c>
+      <c r="DW7" t="s"/>
+      <c r="DX7" t="s"/>
       <c r="DY7" t="s"/>
       <c r="DZ7" t="s"/>
-      <c r="EA7" t="s">
-        <v>202</v>
-      </c>
+      <c r="EA7" t="s"/>
       <c r="EB7" t="s"/>
-      <c r="EC7" t="s"/>
-      <c r="ED7" t="s">
-        <v>205</v>
-      </c>
+      <c r="EC7" t="s">
+        <v>101</v>
+      </c>
+      <c r="ED7" t="s"/>
       <c r="EE7" t="s">
-        <v>206</v>
-      </c>
-      <c r="EF7" t="s"/>
-      <c r="EG7" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>190</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>191</v>
+      </c>
       <c r="EH7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="EI7" t="s"/>
-      <c r="EJ7" t="s"/>
-      <c r="EK7" t="s"/>
+      <c r="EJ7" t="s">
+        <v>194</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>195</v>
+      </c>
       <c r="EL7" t="s"/>
       <c r="EM7" t="s"/>
       <c r="EN7" t="s"/>
       <c r="EO7" t="s"/>
-      <c r="EP7" t="s">
-        <v>215</v>
-      </c>
+      <c r="EP7" t="s"/>
       <c r="EQ7" t="s"/>
       <c r="ER7" t="s"/>
       <c r="ES7" t="s"/>
@@ -4983,55 +4740,55 @@
       <c r="EV7" t="s"/>
       <c r="EW7" t="s"/>
       <c r="EX7" t="s">
-        <v>374</v>
+        <v>101</v>
       </c>
       <c r="EY7" t="s"/>
       <c r="EZ7" t="s"/>
       <c r="FA7" t="s"/>
-      <c r="FB7" t="s"/>
-      <c r="FC7" t="s"/>
-      <c r="FD7" t="s"/>
-      <c r="FE7" t="s">
-        <v>228</v>
-      </c>
-      <c r="FF7" t="s"/>
-      <c r="FG7" t="s"/>
-      <c r="FH7" t="s"/>
-      <c r="FI7" t="s"/>
+      <c r="FB7" t="s">
+        <v>207</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>208</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>209</v>
+      </c>
+      <c r="FE7" t="s"/>
+      <c r="FF7" t="s">
+        <v>211</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>212</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>213</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>214</v>
+      </c>
       <c r="FJ7" t="s"/>
       <c r="FK7" t="s"/>
-      <c r="FL7" t="s">
-        <v>233</v>
-      </c>
+      <c r="FL7" t="s"/>
       <c r="FM7" t="s"/>
       <c r="FN7" t="s"/>
       <c r="FO7" t="s"/>
-      <c r="FP7" t="s">
-        <v>237</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>238</v>
-      </c>
+      <c r="FP7" t="s"/>
+      <c r="FQ7" t="s"/>
       <c r="FR7" t="s"/>
       <c r="FS7" t="s"/>
       <c r="FT7" t="s"/>
       <c r="FU7" t="s"/>
-      <c r="FV7" t="s">
-        <v>260</v>
-      </c>
+      <c r="FV7" t="s"/>
       <c r="FW7" t="s"/>
       <c r="FX7" t="s"/>
       <c r="FY7" t="s"/>
-      <c r="FZ7" t="s">
-        <v>243</v>
-      </c>
+      <c r="FZ7" t="s"/>
       <c r="GA7" t="s"/>
       <c r="GB7" t="s"/>
       <c r="GC7" t="s"/>
       <c r="GD7" t="s"/>
-      <c r="GE7" t="s">
-        <v>248</v>
-      </c>
+      <c r="GE7" t="s"/>
       <c r="GF7" t="s"/>
       <c r="GG7" t="s"/>
       <c r="GH7" t="s"/>
@@ -5039,60 +4796,44 @@
       <c r="GJ7" t="s"/>
       <c r="GK7" t="s"/>
       <c r="GL7" t="s"/>
-      <c r="GM7" t="s">
-        <v>256</v>
-      </c>
+      <c r="GM7" t="s"/>
       <c r="GN7" t="s"/>
       <c r="GO7" t="s"/>
       <c r="GP7" t="s"/>
       <c r="GQ7" t="s"/>
-      <c r="GR7" t="s">
-        <v>260</v>
-      </c>
+      <c r="GR7" t="s"/>
       <c r="GS7" t="s"/>
       <c r="GT7" t="s"/>
       <c r="GU7" t="s"/>
       <c r="GV7" t="s"/>
       <c r="GW7" t="s"/>
-      <c r="GX7" t="s">
-        <v>265</v>
-      </c>
+      <c r="GX7" t="s"/>
       <c r="GY7" t="s"/>
-      <c r="GZ7" t="s">
-        <v>266</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>267</v>
-      </c>
+      <c r="GZ7" t="s"/>
+      <c r="HA7" t="s"/>
       <c r="HB7" t="s"/>
       <c r="HC7" t="s"/>
       <c r="HD7" t="s"/>
       <c r="HE7" t="s"/>
       <c r="HF7" t="s"/>
-      <c r="HG7" t="s">
-        <v>375</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>376</v>
-      </c>
+      <c r="HG7" t="s"/>
+      <c r="HH7" t="s"/>
       <c r="HI7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="HJ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HK7" t="n">
-        <v>2</v>
+        <v>322</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>323</v>
       </c>
       <c r="HL7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="HM7" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>381</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="HN7" t="s"/>
       <c r="HO7" t="s"/>
       <c r="HP7" t="s"/>
       <c r="HQ7" t="s"/>
@@ -5100,288 +4841,285 @@
       <c r="HS7" t="s"/>
       <c r="HT7" t="s"/>
       <c r="HU7" t="s"/>
-      <c r="HV7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HW7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>384</v>
-      </c>
+      <c r="HV7" t="s"/>
+      <c r="HW7" t="s"/>
+      <c r="HX7" t="s"/>
       <c r="HY7" t="s"/>
       <c r="HZ7" t="s"/>
       <c r="IA7" t="s"/>
       <c r="IB7" t="s"/>
-      <c r="IC7" t="s"/>
-      <c r="ID7" t="s">
-        <v>99</v>
-      </c>
+      <c r="IC7" t="s">
+        <v>326</v>
+      </c>
+      <c r="ID7" t="s"/>
       <c r="IE7" t="s"/>
       <c r="IF7" t="s"/>
-      <c r="IG7" t="s"/>
-      <c r="IH7" t="s"/>
+      <c r="IG7" t="s">
+        <v>327</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>328</v>
+      </c>
       <c r="II7" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="IJ7" t="s">
-        <v>272</v>
-      </c>
-      <c r="IK7" t="s"/>
+        <v>330</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>331</v>
+      </c>
       <c r="IL7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="IM7" t="s">
-        <v>328</v>
-      </c>
-      <c r="IN7" t="s"/>
-      <c r="IO7" t="s"/>
+        <v>333</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>334</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>335</v>
+      </c>
       <c r="IP7" t="s"/>
-      <c r="IQ7" t="s">
-        <v>386</v>
-      </c>
+      <c r="IQ7" t="s"/>
       <c r="IR7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="IS7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="IT7" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="IU7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="IV7" t="s">
-        <v>390</v>
-      </c>
-      <c r="IW7" t="s">
-        <v>391</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="IW7" t="s"/>
       <c r="IX7" t="s"/>
       <c r="IY7" t="s"/>
-      <c r="IZ7" t="s"/>
-      <c r="JA7" t="s"/>
-      <c r="JB7" t="s">
-        <v>338</v>
-      </c>
-      <c r="JC7" t="s">
-        <v>392</v>
-      </c>
-      <c r="JD7" t="s">
-        <v>393</v>
-      </c>
-      <c r="JE7" t="s">
-        <v>350</v>
-      </c>
-      <c r="JF7" t="s"/>
+      <c r="IZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="JB7" t="s"/>
+      <c r="JC7" t="s"/>
+      <c r="JD7" t="s"/>
+      <c r="JE7" t="n">
+        <v>16</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>52</v>
+      </c>
       <c r="JG7" t="s"/>
       <c r="JH7" t="s"/>
       <c r="JI7" t="s"/>
-      <c r="JJ7" t="s"/>
-      <c r="JK7" t="s"/>
+      <c r="JJ7" t="s">
+        <v>339</v>
+      </c>
+      <c r="JK7" t="s">
+        <v>340</v>
+      </c>
       <c r="JL7" t="s"/>
       <c r="JM7" t="s"/>
       <c r="JN7" t="s"/>
-      <c r="JO7" t="s"/>
-      <c r="JP7" t="s"/>
-      <c r="JQ7" t="s"/>
-      <c r="JR7" t="s"/>
+      <c r="JO7" t="s">
+        <v>302</v>
+      </c>
+      <c r="JP7" t="s">
+        <v>341</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>342</v>
+      </c>
+      <c r="JR7" t="s">
+        <v>343</v>
+      </c>
       <c r="JS7" t="s"/>
       <c r="JT7" t="s"/>
       <c r="JU7" t="s"/>
-      <c r="JV7" t="s"/>
-      <c r="JW7" t="s"/>
+      <c r="JV7" t="s">
+        <v>344</v>
+      </c>
+      <c r="JW7" t="s">
+        <v>345</v>
+      </c>
       <c r="JX7" t="s"/>
       <c r="JY7" t="s"/>
       <c r="JZ7" t="s">
-        <v>341</v>
-      </c>
-      <c r="KA7" t="s">
-        <v>394</v>
-      </c>
-      <c r="KB7" t="s">
-        <v>395</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="KA7" t="s"/>
+      <c r="KB7" t="s"/>
       <c r="KC7" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="KD7" t="s">
-        <v>397</v>
-      </c>
-      <c r="KE7" t="s">
-        <v>398</v>
-      </c>
-      <c r="KF7" t="s"/>
-      <c r="KG7" t="s"/>
-      <c r="KH7" t="s">
-        <v>399</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="KE7" t="s"/>
+      <c r="KF7" t="s">
+        <v>346</v>
+      </c>
+      <c r="KG7" t="s">
+        <v>347</v>
+      </c>
+      <c r="KH7" t="s"/>
       <c r="KI7" t="s">
-        <v>400</v>
-      </c>
-      <c r="KJ7" t="s"/>
-      <c r="KK7" t="s">
-        <v>401</v>
-      </c>
-      <c r="KL7" t="s">
-        <v>402</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="KJ7" t="s">
+        <v>349</v>
+      </c>
+      <c r="KK7" t="s"/>
+      <c r="KL7" t="s"/>
       <c r="KM7" t="s"/>
-      <c r="KN7" t="s">
-        <v>350</v>
-      </c>
-      <c r="KO7" t="s">
-        <v>350</v>
-      </c>
-      <c r="KP7" t="s">
-        <v>403</v>
-      </c>
-      <c r="KQ7" t="s"/>
-      <c r="KR7" t="s">
-        <v>404</v>
-      </c>
-      <c r="KS7" t="s"/>
-      <c r="KT7" t="s"/>
-      <c r="KU7" t="s"/>
+      <c r="KN7" t="s"/>
+      <c r="KO7" t="s"/>
+      <c r="KP7" t="s"/>
+      <c r="KQ7" t="s">
+        <v>311</v>
+      </c>
+      <c r="KR7" t="s"/>
+      <c r="KS7" t="s">
+        <v>312</v>
+      </c>
+      <c r="KT7" t="s">
+        <v>313</v>
+      </c>
+      <c r="KU7" t="s">
+        <v>314</v>
+      </c>
       <c r="KV7" t="s"/>
       <c r="KW7" t="s"/>
       <c r="KX7" t="s"/>
       <c r="KY7" t="s"/>
       <c r="KZ7" t="s"/>
-      <c r="LA7" t="s"/>
-      <c r="LB7" t="s">
-        <v>405</v>
-      </c>
-      <c r="LC7" t="s">
-        <v>406</v>
-      </c>
-      <c r="LD7" t="s">
-        <v>407</v>
-      </c>
-      <c r="LE7" t="s">
-        <v>408</v>
-      </c>
-      <c r="LF7" t="s"/>
-      <c r="LG7" t="s">
-        <v>409</v>
-      </c>
-      <c r="LH7" t="s">
-        <v>410</v>
-      </c>
-      <c r="LI7" t="s">
-        <v>411</v>
-      </c>
-      <c r="LJ7" t="s">
-        <v>412</v>
-      </c>
-      <c r="LK7" t="s"/>
-      <c r="LL7" t="s"/>
+      <c r="LA7" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="8" spans="1:324">
+    <row r="8" spans="1:313">
       <c r="A8" t="n">
-        <v>10548992723</v>
+        <v>10549086762</v>
       </c>
       <c r="B8" t="n">
         <v>226208327</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43518.46223379629</v>
+        <v>43518.48881944444</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43518.56435185186</v>
+        <v>43525.04128472223</v>
       </c>
       <c r="E8" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="K8" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="L8" t="s"/>
       <c r="M8" t="s"/>
       <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s">
-        <v>417</v>
-      </c>
-      <c r="V8" t="s">
-        <v>418</v>
-      </c>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s"/>
       <c r="W8" t="s">
-        <v>419</v>
-      </c>
-      <c r="X8" t="s">
-        <v>420</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
-      <c r="AA8" t="s">
-        <v>421</v>
-      </c>
+      <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
-      <c r="AC8" t="s">
-        <v>116</v>
-      </c>
+      <c r="AC8" t="s"/>
       <c r="AD8" t="s"/>
       <c r="AE8" t="s"/>
       <c r="AF8" t="s"/>
       <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
+      <c r="AH8" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>357</v>
+      </c>
       <c r="AK8" t="s"/>
-      <c r="AL8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
+      <c r="AL8" t="s"/>
+      <c r="AM8" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>359</v>
+      </c>
       <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
+      <c r="AP8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>112</v>
+      </c>
       <c r="AS8" t="s"/>
       <c r="AT8" t="s"/>
       <c r="AU8" t="s"/>
       <c r="AV8" t="s"/>
       <c r="AW8" t="s"/>
       <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
+      <c r="AY8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>118</v>
+      </c>
       <c r="BA8" t="s">
-        <v>422</v>
+        <v>119</v>
       </c>
       <c r="BB8" t="s"/>
       <c r="BC8" t="s"/>
-      <c r="BD8" t="s"/>
-      <c r="BE8" t="s"/>
-      <c r="BF8" t="s"/>
+      <c r="BD8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>124</v>
+      </c>
       <c r="BG8" t="s"/>
-      <c r="BH8" t="s">
-        <v>107</v>
-      </c>
+      <c r="BH8" t="s"/>
       <c r="BI8" t="s"/>
       <c r="BJ8" t="s"/>
       <c r="BK8" t="s"/>
       <c r="BL8" t="s"/>
       <c r="BM8" t="s"/>
       <c r="BN8" t="s"/>
-      <c r="BO8" t="s">
-        <v>149</v>
-      </c>
+      <c r="BO8" t="s"/>
       <c r="BP8" t="s"/>
       <c r="BQ8" t="s"/>
       <c r="BR8" t="s"/>
@@ -5398,21 +5136,25 @@
       <c r="CC8" t="s"/>
       <c r="CD8" t="s"/>
       <c r="CE8" t="s"/>
-      <c r="CF8" t="s"/>
+      <c r="CF8" t="s">
+        <v>148</v>
+      </c>
       <c r="CG8" t="s"/>
       <c r="CH8" t="s"/>
       <c r="CI8" t="s"/>
       <c r="CJ8" t="s"/>
       <c r="CK8" t="s"/>
       <c r="CL8" t="s"/>
-      <c r="CM8" t="s"/>
-      <c r="CN8" t="s">
-        <v>172</v>
-      </c>
+      <c r="CM8" t="s">
+        <v>360</v>
+      </c>
+      <c r="CN8" t="s"/>
       <c r="CO8" t="s"/>
       <c r="CP8" t="s"/>
       <c r="CQ8" t="s"/>
-      <c r="CR8" t="s"/>
+      <c r="CR8" t="s">
+        <v>101</v>
+      </c>
       <c r="CS8" t="s"/>
       <c r="CT8" t="s"/>
       <c r="CU8" t="s"/>
@@ -5421,9 +5163,7 @@
       <c r="CX8" t="s"/>
       <c r="CY8" t="s"/>
       <c r="CZ8" t="s"/>
-      <c r="DA8" t="s">
-        <v>107</v>
-      </c>
+      <c r="DA8" t="s"/>
       <c r="DB8" t="s"/>
       <c r="DC8" t="s"/>
       <c r="DD8" t="s"/>
@@ -5431,28 +5171,40 @@
       <c r="DF8" t="s"/>
       <c r="DG8" t="s"/>
       <c r="DH8" t="s"/>
-      <c r="DI8" t="s"/>
-      <c r="DJ8" t="s"/>
-      <c r="DK8" t="s"/>
+      <c r="DI8" t="s">
+        <v>361</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>362</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>363</v>
+      </c>
       <c r="DL8" t="s"/>
-      <c r="DM8" t="s"/>
-      <c r="DN8" t="s"/>
+      <c r="DM8" t="s">
+        <v>173</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>174</v>
+      </c>
       <c r="DO8" t="s"/>
       <c r="DP8" t="s"/>
-      <c r="DQ8" t="s"/>
-      <c r="DR8" t="s">
-        <v>423</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>424</v>
-      </c>
+      <c r="DQ8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR8" t="s"/>
+      <c r="DS8" t="s"/>
       <c r="DT8" t="s">
-        <v>425</v>
-      </c>
-      <c r="DU8" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>181</v>
+      </c>
       <c r="DV8" t="s"/>
       <c r="DW8" t="s"/>
-      <c r="DX8" t="s"/>
+      <c r="DX8" t="s">
+        <v>184</v>
+      </c>
       <c r="DY8" t="s"/>
       <c r="DZ8" t="s"/>
       <c r="EA8" t="s"/>
@@ -5460,41 +5212,47 @@
       <c r="EC8" t="s"/>
       <c r="ED8" t="s"/>
       <c r="EE8" t="s"/>
-      <c r="EF8" t="s"/>
+      <c r="EF8" t="s">
+        <v>190</v>
+      </c>
       <c r="EG8" t="s"/>
       <c r="EH8" t="s"/>
       <c r="EI8" t="s"/>
       <c r="EJ8" t="s"/>
       <c r="EK8" t="s"/>
       <c r="EL8" t="s"/>
-      <c r="EM8" t="s">
-        <v>107</v>
-      </c>
-      <c r="EN8" t="s"/>
+      <c r="EM8" t="s"/>
+      <c r="EN8" t="s">
+        <v>364</v>
+      </c>
       <c r="EO8" t="s"/>
       <c r="EP8" t="s"/>
-      <c r="EQ8" t="s">
-        <v>216</v>
-      </c>
+      <c r="EQ8" t="s"/>
       <c r="ER8" t="s"/>
       <c r="ES8" t="s"/>
       <c r="ET8" t="s"/>
-      <c r="EU8" t="s"/>
+      <c r="EU8" t="s">
+        <v>202</v>
+      </c>
       <c r="EV8" t="s"/>
       <c r="EW8" t="s"/>
       <c r="EX8" t="s"/>
       <c r="EY8" t="s"/>
       <c r="EZ8" t="s"/>
       <c r="FA8" t="s"/>
-      <c r="FB8" t="s"/>
+      <c r="FB8" t="s">
+        <v>207</v>
+      </c>
       <c r="FC8" t="s"/>
       <c r="FD8" t="s"/>
       <c r="FE8" t="s"/>
-      <c r="FF8" t="s"/>
-      <c r="FG8" t="s"/>
-      <c r="FH8" t="s">
-        <v>107</v>
-      </c>
+      <c r="FF8" t="s">
+        <v>211</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>212</v>
+      </c>
+      <c r="FH8" t="s"/>
       <c r="FI8" t="s"/>
       <c r="FJ8" t="s"/>
       <c r="FK8" t="s"/>
@@ -5506,13 +5264,9 @@
       <c r="FQ8" t="s"/>
       <c r="FR8" t="s"/>
       <c r="FS8" t="s"/>
-      <c r="FT8" t="s">
-        <v>107</v>
-      </c>
+      <c r="FT8" t="s"/>
       <c r="FU8" t="s"/>
-      <c r="FV8" t="s">
-        <v>259</v>
-      </c>
+      <c r="FV8" t="s"/>
       <c r="FW8" t="s"/>
       <c r="FX8" t="s"/>
       <c r="FY8" t="s"/>
@@ -5547,19 +5301,25 @@
       <c r="HB8" t="s"/>
       <c r="HC8" t="s"/>
       <c r="HD8" t="s"/>
-      <c r="HE8" t="s">
-        <v>107</v>
-      </c>
+      <c r="HE8" t="s"/>
       <c r="HF8" t="s"/>
       <c r="HG8" t="s"/>
-      <c r="HH8" t="s">
-        <v>322</v>
-      </c>
-      <c r="HI8" t="s"/>
-      <c r="HJ8" t="s"/>
-      <c r="HK8" t="s"/>
-      <c r="HL8" t="s"/>
-      <c r="HM8" t="s"/>
+      <c r="HH8" t="s"/>
+      <c r="HI8" t="s">
+        <v>365</v>
+      </c>
+      <c r="HJ8" t="s">
+        <v>291</v>
+      </c>
+      <c r="HK8" t="s">
+        <v>366</v>
+      </c>
+      <c r="HL8" t="s">
+        <v>367</v>
+      </c>
+      <c r="HM8" t="s">
+        <v>368</v>
+      </c>
       <c r="HN8" t="s"/>
       <c r="HO8" t="s"/>
       <c r="HP8" t="s"/>
@@ -5567,79 +5327,71 @@
       <c r="HR8" t="s"/>
       <c r="HS8" t="s"/>
       <c r="HT8" t="s"/>
-      <c r="HU8" t="s"/>
+      <c r="HU8" t="s">
+        <v>369</v>
+      </c>
       <c r="HV8" t="s">
-        <v>426</v>
-      </c>
-      <c r="HW8" t="s"/>
-      <c r="HX8" t="s">
-        <v>427</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>371</v>
+      </c>
+      <c r="HX8" t="s"/>
       <c r="HY8" t="s"/>
       <c r="HZ8" t="s"/>
       <c r="IA8" t="s"/>
       <c r="IB8" t="s"/>
-      <c r="IC8" t="s"/>
+      <c r="IC8" t="s">
+        <v>326</v>
+      </c>
       <c r="ID8" t="s"/>
       <c r="IE8" t="s"/>
       <c r="IF8" t="s"/>
-      <c r="IG8" t="s"/>
-      <c r="IH8" t="s"/>
-      <c r="II8" t="s"/>
+      <c r="IG8" t="s">
+        <v>372</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>373</v>
+      </c>
+      <c r="II8" t="s">
+        <v>374</v>
+      </c>
       <c r="IJ8" t="s">
-        <v>272</v>
-      </c>
-      <c r="IK8" t="s"/>
+        <v>375</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>331</v>
+      </c>
       <c r="IL8" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="IM8" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="IN8" t="s"/>
       <c r="IO8" t="s"/>
       <c r="IP8" t="s"/>
-      <c r="IQ8" t="s">
-        <v>428</v>
-      </c>
+      <c r="IQ8" t="s"/>
       <c r="IR8" t="s">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="IS8" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
       <c r="IT8" t="s">
-        <v>431</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>333</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>432</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>433</v>
-      </c>
-      <c r="IX8" t="s">
-        <v>434</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>435</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="IU8" t="s"/>
+      <c r="IV8" t="s"/>
+      <c r="IW8" t="s"/>
+      <c r="IX8" t="s"/>
+      <c r="IY8" t="s"/>
       <c r="IZ8" t="s"/>
       <c r="JA8" t="s"/>
-      <c r="JB8" t="s">
-        <v>338</v>
-      </c>
-      <c r="JC8" t="s">
-        <v>392</v>
-      </c>
-      <c r="JD8" t="s">
-        <v>393</v>
-      </c>
-      <c r="JE8" t="s">
-        <v>350</v>
-      </c>
+      <c r="JB8" t="s"/>
+      <c r="JC8" t="s"/>
+      <c r="JD8" t="s"/>
+      <c r="JE8" t="s"/>
       <c r="JF8" t="s"/>
       <c r="JG8" t="s"/>
       <c r="JH8" t="s"/>
@@ -5649,99 +5401,118 @@
       <c r="JL8" t="s"/>
       <c r="JM8" t="s"/>
       <c r="JN8" t="s"/>
-      <c r="JO8" t="s"/>
-      <c r="JP8" t="s"/>
-      <c r="JQ8" t="s"/>
-      <c r="JR8" t="s"/>
-      <c r="JS8" t="s"/>
-      <c r="JT8" t="s"/>
+      <c r="JO8" t="s">
+        <v>302</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>378</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JR8" t="s">
+        <v>380</v>
+      </c>
+      <c r="JS8" t="s">
+        <v>381</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>382</v>
+      </c>
       <c r="JU8" t="s"/>
       <c r="JV8" t="s"/>
-      <c r="JW8" t="s"/>
-      <c r="JX8" t="s"/>
+      <c r="JW8" t="s">
+        <v>383</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>384</v>
+      </c>
       <c r="JY8" t="s"/>
       <c r="JZ8" t="s">
-        <v>341</v>
-      </c>
-      <c r="KA8" t="s"/>
+        <v>385</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>386</v>
+      </c>
       <c r="KB8" t="s"/>
-      <c r="KC8" t="s"/>
-      <c r="KD8" t="s"/>
-      <c r="KE8" t="s"/>
+      <c r="KC8" t="s">
+        <v>303</v>
+      </c>
+      <c r="KD8" t="s">
+        <v>303</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>387</v>
+      </c>
       <c r="KF8" t="s"/>
       <c r="KG8" t="s">
-        <v>436</v>
-      </c>
-      <c r="KH8" t="s">
-        <v>437</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="KH8" t="s"/>
       <c r="KI8" t="s"/>
       <c r="KJ8" t="s"/>
-      <c r="KK8" t="s">
-        <v>438</v>
-      </c>
+      <c r="KK8" t="s"/>
       <c r="KL8" t="s"/>
       <c r="KM8" t="s"/>
-      <c r="KN8" t="s">
-        <v>350</v>
-      </c>
-      <c r="KO8" t="s">
-        <v>350</v>
-      </c>
+      <c r="KN8" t="s"/>
+      <c r="KO8" t="s"/>
       <c r="KP8" t="s"/>
-      <c r="KQ8" t="s"/>
+      <c r="KQ8" t="s">
+        <v>389</v>
+      </c>
       <c r="KR8" t="s">
-        <v>439</v>
-      </c>
-      <c r="KS8" t="s"/>
-      <c r="KT8" t="s"/>
-      <c r="KU8" t="s">
-        <v>440</v>
-      </c>
-      <c r="KV8" t="s"/>
-      <c r="KW8" t="s"/>
-      <c r="KX8" t="s"/>
-      <c r="KY8" t="s"/>
+        <v>390</v>
+      </c>
+      <c r="KS8" t="s">
+        <v>391</v>
+      </c>
+      <c r="KT8" t="s">
+        <v>392</v>
+      </c>
+      <c r="KU8" t="s"/>
+      <c r="KV8" t="s">
+        <v>393</v>
+      </c>
+      <c r="KW8" t="s">
+        <v>394</v>
+      </c>
+      <c r="KX8" t="s">
+        <v>395</v>
+      </c>
+      <c r="KY8" t="s">
+        <v>396</v>
+      </c>
       <c r="KZ8" t="s"/>
       <c r="LA8" t="s"/>
-      <c r="LB8" t="s">
-        <v>441</v>
-      </c>
-      <c r="LC8" t="s"/>
-      <c r="LD8" t="s"/>
-      <c r="LE8" t="s"/>
-      <c r="LF8" t="s"/>
-      <c r="LG8" t="s"/>
-      <c r="LH8" t="s"/>
-      <c r="LI8" t="s"/>
-      <c r="LJ8" t="s"/>
-      <c r="LK8" t="s"/>
-      <c r="LL8" t="s"/>
     </row>
-    <row r="9" spans="1:324">
+    <row r="9" spans="1:313">
       <c r="A9" t="n">
-        <v>10548947622</v>
+        <v>10548992723</v>
       </c>
       <c r="B9" t="n">
         <v>226208327</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43518.44971064815</v>
+        <v>43518.46223379629</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43519.91744212963</v>
+        <v>43518.56435185186</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+      <c r="J9" t="s">
+        <v>399</v>
+      </c>
+      <c r="K9" t="s">
+        <v>400</v>
+      </c>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
       <c r="N9" t="s"/>
@@ -5753,7 +5524,9 @@
       <c r="T9" t="s"/>
       <c r="U9" t="s"/>
       <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
+      <c r="W9" t="s">
+        <v>401</v>
+      </c>
       <c r="X9" t="s"/>
       <c r="Y9" t="s"/>
       <c r="Z9" t="s"/>
@@ -5764,26 +5537,40 @@
       <c r="AE9" t="s"/>
       <c r="AF9" t="s"/>
       <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
+      <c r="AH9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>404</v>
+      </c>
       <c r="AK9" t="s"/>
       <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
+      <c r="AM9" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>406</v>
+      </c>
       <c r="AO9" t="s"/>
       <c r="AP9" t="s"/>
       <c r="AQ9" t="s"/>
       <c r="AR9" t="s"/>
       <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
+      <c r="AT9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU9" t="s"/>
       <c r="AV9" t="s"/>
       <c r="AW9" t="s"/>
       <c r="AX9" t="s"/>
       <c r="AY9" t="s"/>
       <c r="AZ9" t="s"/>
-      <c r="BA9" t="s"/>
+      <c r="BA9" t="s">
+        <v>119</v>
+      </c>
       <c r="BB9" t="s"/>
       <c r="BC9" t="s"/>
       <c r="BD9" t="s"/>
@@ -5812,7 +5599,9 @@
       <c r="CA9" t="s"/>
       <c r="CB9" t="s"/>
       <c r="CC9" t="s"/>
-      <c r="CD9" t="s"/>
+      <c r="CD9" t="s">
+        <v>146</v>
+      </c>
       <c r="CE9" t="s"/>
       <c r="CF9" t="s"/>
       <c r="CG9" t="s"/>
@@ -5826,7 +5615,9 @@
       <c r="CO9" t="s"/>
       <c r="CP9" t="s"/>
       <c r="CQ9" t="s"/>
-      <c r="CR9" t="s"/>
+      <c r="CR9" t="s">
+        <v>101</v>
+      </c>
       <c r="CS9" t="s"/>
       <c r="CT9" t="s"/>
       <c r="CU9" t="s"/>
@@ -5843,8 +5634,12 @@
       <c r="DF9" t="s"/>
       <c r="DG9" t="s"/>
       <c r="DH9" t="s"/>
-      <c r="DI9" t="s"/>
-      <c r="DJ9" t="s"/>
+      <c r="DI9" t="s">
+        <v>407</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>408</v>
+      </c>
       <c r="DK9" t="s"/>
       <c r="DL9" t="s"/>
       <c r="DM9" t="s"/>
@@ -5863,11 +5658,15 @@
       <c r="DZ9" t="s"/>
       <c r="EA9" t="s"/>
       <c r="EB9" t="s"/>
-      <c r="EC9" t="s"/>
+      <c r="EC9" t="s">
+        <v>101</v>
+      </c>
       <c r="ED9" t="s"/>
       <c r="EE9" t="s"/>
       <c r="EF9" t="s"/>
-      <c r="EG9" t="s"/>
+      <c r="EG9" t="s">
+        <v>191</v>
+      </c>
       <c r="EH9" t="s"/>
       <c r="EI9" t="s"/>
       <c r="EJ9" t="s"/>
@@ -5884,7 +5683,9 @@
       <c r="EU9" t="s"/>
       <c r="EV9" t="s"/>
       <c r="EW9" t="s"/>
-      <c r="EX9" t="s"/>
+      <c r="EX9" t="s">
+        <v>101</v>
+      </c>
       <c r="EY9" t="s"/>
       <c r="EZ9" t="s"/>
       <c r="FA9" t="s"/>
@@ -5896,7 +5697,9 @@
       <c r="FG9" t="s"/>
       <c r="FH9" t="s"/>
       <c r="FI9" t="s"/>
-      <c r="FJ9" t="s"/>
+      <c r="FJ9" t="s">
+        <v>101</v>
+      </c>
       <c r="FK9" t="s"/>
       <c r="FL9" t="s"/>
       <c r="FM9" t="s"/>
@@ -5948,7 +5751,9 @@
       <c r="HG9" t="s"/>
       <c r="HH9" t="s"/>
       <c r="HI9" t="s"/>
-      <c r="HJ9" t="s"/>
+      <c r="HJ9" t="s">
+        <v>322</v>
+      </c>
       <c r="HK9" t="s"/>
       <c r="HL9" t="s"/>
       <c r="HM9" t="s"/>
@@ -5959,32 +5764,62 @@
       <c r="HR9" t="s"/>
       <c r="HS9" t="s"/>
       <c r="HT9" t="s"/>
-      <c r="HU9" t="s"/>
+      <c r="HU9" t="s">
+        <v>409</v>
+      </c>
       <c r="HV9" t="s"/>
-      <c r="HW9" t="s"/>
+      <c r="HW9" t="s">
+        <v>410</v>
+      </c>
       <c r="HX9" t="s"/>
       <c r="HY9" t="s"/>
       <c r="HZ9" t="s"/>
       <c r="IA9" t="s"/>
       <c r="IB9" t="s"/>
-      <c r="IC9" t="s"/>
+      <c r="IC9" t="s">
+        <v>326</v>
+      </c>
       <c r="ID9" t="s"/>
       <c r="IE9" t="s"/>
       <c r="IF9" t="s"/>
-      <c r="IG9" t="s"/>
-      <c r="IH9" t="s"/>
-      <c r="II9" t="s"/>
-      <c r="IJ9" t="s"/>
-      <c r="IK9" t="s"/>
-      <c r="IL9" t="s"/>
-      <c r="IM9" t="s"/>
-      <c r="IN9" t="s"/>
-      <c r="IO9" t="s"/>
+      <c r="IG9" t="s">
+        <v>411</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>412</v>
+      </c>
+      <c r="II9" t="s">
+        <v>413</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>414</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>331</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>415</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>416</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>417</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>418</v>
+      </c>
       <c r="IP9" t="s"/>
       <c r="IQ9" t="s"/>
-      <c r="IR9" t="s"/>
-      <c r="IS9" t="s"/>
-      <c r="IT9" t="s"/>
+      <c r="IR9" t="s">
+        <v>300</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>301</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>303</v>
+      </c>
       <c r="IU9" t="s"/>
       <c r="IV9" t="s"/>
       <c r="IW9" t="s"/>
@@ -6005,35 +5840,53 @@
       <c r="JL9" t="s"/>
       <c r="JM9" t="s"/>
       <c r="JN9" t="s"/>
-      <c r="JO9" t="s"/>
+      <c r="JO9" t="s">
+        <v>302</v>
+      </c>
       <c r="JP9" t="s"/>
       <c r="JQ9" t="s"/>
       <c r="JR9" t="s"/>
       <c r="JS9" t="s"/>
       <c r="JT9" t="s"/>
       <c r="JU9" t="s"/>
-      <c r="JV9" t="s"/>
-      <c r="JW9" t="s"/>
+      <c r="JV9" t="s">
+        <v>419</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>420</v>
+      </c>
       <c r="JX9" t="s"/>
       <c r="JY9" t="s"/>
-      <c r="JZ9" t="s"/>
+      <c r="JZ9" t="s">
+        <v>421</v>
+      </c>
       <c r="KA9" t="s"/>
       <c r="KB9" t="s"/>
-      <c r="KC9" t="s"/>
-      <c r="KD9" t="s"/>
+      <c r="KC9" t="s">
+        <v>303</v>
+      </c>
+      <c r="KD9" t="s">
+        <v>303</v>
+      </c>
       <c r="KE9" t="s"/>
       <c r="KF9" t="s"/>
-      <c r="KG9" t="s"/>
+      <c r="KG9" t="s">
+        <v>422</v>
+      </c>
       <c r="KH9" t="s"/>
       <c r="KI9" t="s"/>
-      <c r="KJ9" t="s"/>
+      <c r="KJ9" t="s">
+        <v>423</v>
+      </c>
       <c r="KK9" t="s"/>
       <c r="KL9" t="s"/>
       <c r="KM9" t="s"/>
       <c r="KN9" t="s"/>
       <c r="KO9" t="s"/>
       <c r="KP9" t="s"/>
-      <c r="KQ9" t="s"/>
+      <c r="KQ9" t="s">
+        <v>424</v>
+      </c>
       <c r="KR9" t="s"/>
       <c r="KS9" t="s"/>
       <c r="KT9" t="s"/>
@@ -6044,17 +5897,333 @@
       <c r="KY9" t="s"/>
       <c r="KZ9" t="s"/>
       <c r="LA9" t="s"/>
-      <c r="LB9" t="s"/>
-      <c r="LC9" t="s"/>
-      <c r="LD9" t="s"/>
-      <c r="LE9" t="s"/>
-      <c r="LF9" t="s"/>
-      <c r="LG9" t="s"/>
-      <c r="LH9" t="s"/>
-      <c r="LI9" t="s"/>
-      <c r="LJ9" t="s"/>
-      <c r="LK9" t="s"/>
-      <c r="LL9" t="s"/>
+    </row>
+    <row r="10" spans="1:313">
+      <c r="A10" t="n">
+        <v>10548947622</v>
+      </c>
+      <c r="B10" t="n">
+        <v>226208327</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>43518.44971064815</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>43519.91744212963</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+      <c r="Z10" t="s"/>
+      <c r="AA10" t="s"/>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="s"/>
+      <c r="AE10" t="s"/>
+      <c r="AF10" t="s"/>
+      <c r="AG10" t="s"/>
+      <c r="AH10" t="s"/>
+      <c r="AI10" t="s"/>
+      <c r="AJ10" t="s"/>
+      <c r="AK10" t="s"/>
+      <c r="AL10" t="s"/>
+      <c r="AM10" t="s"/>
+      <c r="AN10" t="s"/>
+      <c r="AO10" t="s"/>
+      <c r="AP10" t="s"/>
+      <c r="AQ10" t="s"/>
+      <c r="AR10" t="s"/>
+      <c r="AS10" t="s"/>
+      <c r="AT10" t="s"/>
+      <c r="AU10" t="s"/>
+      <c r="AV10" t="s"/>
+      <c r="AW10" t="s"/>
+      <c r="AX10" t="s"/>
+      <c r="AY10" t="s"/>
+      <c r="AZ10" t="s"/>
+      <c r="BA10" t="s"/>
+      <c r="BB10" t="s"/>
+      <c r="BC10" t="s"/>
+      <c r="BD10" t="s"/>
+      <c r="BE10" t="s"/>
+      <c r="BF10" t="s"/>
+      <c r="BG10" t="s"/>
+      <c r="BH10" t="s"/>
+      <c r="BI10" t="s"/>
+      <c r="BJ10" t="s"/>
+      <c r="BK10" t="s"/>
+      <c r="BL10" t="s"/>
+      <c r="BM10" t="s"/>
+      <c r="BN10" t="s"/>
+      <c r="BO10" t="s"/>
+      <c r="BP10" t="s"/>
+      <c r="BQ10" t="s"/>
+      <c r="BR10" t="s"/>
+      <c r="BS10" t="s"/>
+      <c r="BT10" t="s"/>
+      <c r="BU10" t="s"/>
+      <c r="BV10" t="s"/>
+      <c r="BW10" t="s"/>
+      <c r="BX10" t="s"/>
+      <c r="BY10" t="s"/>
+      <c r="BZ10" t="s"/>
+      <c r="CA10" t="s"/>
+      <c r="CB10" t="s"/>
+      <c r="CC10" t="s"/>
+      <c r="CD10" t="s"/>
+      <c r="CE10" t="s"/>
+      <c r="CF10" t="s"/>
+      <c r="CG10" t="s"/>
+      <c r="CH10" t="s"/>
+      <c r="CI10" t="s"/>
+      <c r="CJ10" t="s"/>
+      <c r="CK10" t="s"/>
+      <c r="CL10" t="s"/>
+      <c r="CM10" t="s"/>
+      <c r="CN10" t="s"/>
+      <c r="CO10" t="s"/>
+      <c r="CP10" t="s"/>
+      <c r="CQ10" t="s"/>
+      <c r="CR10" t="s"/>
+      <c r="CS10" t="s"/>
+      <c r="CT10" t="s"/>
+      <c r="CU10" t="s"/>
+      <c r="CV10" t="s"/>
+      <c r="CW10" t="s"/>
+      <c r="CX10" t="s"/>
+      <c r="CY10" t="s"/>
+      <c r="CZ10" t="s"/>
+      <c r="DA10" t="s"/>
+      <c r="DB10" t="s"/>
+      <c r="DC10" t="s"/>
+      <c r="DD10" t="s"/>
+      <c r="DE10" t="s"/>
+      <c r="DF10" t="s"/>
+      <c r="DG10" t="s"/>
+      <c r="DH10" t="s"/>
+      <c r="DI10" t="s"/>
+      <c r="DJ10" t="s"/>
+      <c r="DK10" t="s"/>
+      <c r="DL10" t="s"/>
+      <c r="DM10" t="s"/>
+      <c r="DN10" t="s"/>
+      <c r="DO10" t="s"/>
+      <c r="DP10" t="s"/>
+      <c r="DQ10" t="s"/>
+      <c r="DR10" t="s"/>
+      <c r="DS10" t="s"/>
+      <c r="DT10" t="s"/>
+      <c r="DU10" t="s"/>
+      <c r="DV10" t="s"/>
+      <c r="DW10" t="s"/>
+      <c r="DX10" t="s"/>
+      <c r="DY10" t="s"/>
+      <c r="DZ10" t="s"/>
+      <c r="EA10" t="s"/>
+      <c r="EB10" t="s"/>
+      <c r="EC10" t="s"/>
+      <c r="ED10" t="s"/>
+      <c r="EE10" t="s"/>
+      <c r="EF10" t="s"/>
+      <c r="EG10" t="s"/>
+      <c r="EH10" t="s"/>
+      <c r="EI10" t="s"/>
+      <c r="EJ10" t="s"/>
+      <c r="EK10" t="s"/>
+      <c r="EL10" t="s"/>
+      <c r="EM10" t="s"/>
+      <c r="EN10" t="s"/>
+      <c r="EO10" t="s"/>
+      <c r="EP10" t="s"/>
+      <c r="EQ10" t="s"/>
+      <c r="ER10" t="s"/>
+      <c r="ES10" t="s"/>
+      <c r="ET10" t="s"/>
+      <c r="EU10" t="s"/>
+      <c r="EV10" t="s"/>
+      <c r="EW10" t="s"/>
+      <c r="EX10" t="s"/>
+      <c r="EY10" t="s"/>
+      <c r="EZ10" t="s"/>
+      <c r="FA10" t="s"/>
+      <c r="FB10" t="s"/>
+      <c r="FC10" t="s"/>
+      <c r="FD10" t="s"/>
+      <c r="FE10" t="s"/>
+      <c r="FF10" t="s"/>
+      <c r="FG10" t="s"/>
+      <c r="FH10" t="s"/>
+      <c r="FI10" t="s"/>
+      <c r="FJ10" t="s"/>
+      <c r="FK10" t="s"/>
+      <c r="FL10" t="s"/>
+      <c r="FM10" t="s"/>
+      <c r="FN10" t="s"/>
+      <c r="FO10" t="s"/>
+      <c r="FP10" t="s"/>
+      <c r="FQ10" t="s"/>
+      <c r="FR10" t="s"/>
+      <c r="FS10" t="s"/>
+      <c r="FT10" t="s"/>
+      <c r="FU10" t="s"/>
+      <c r="FV10" t="s"/>
+      <c r="FW10" t="s"/>
+      <c r="FX10" t="s"/>
+      <c r="FY10" t="s"/>
+      <c r="FZ10" t="s"/>
+      <c r="GA10" t="s"/>
+      <c r="GB10" t="s"/>
+      <c r="GC10" t="s"/>
+      <c r="GD10" t="s"/>
+      <c r="GE10" t="s"/>
+      <c r="GF10" t="s"/>
+      <c r="GG10" t="s"/>
+      <c r="GH10" t="s"/>
+      <c r="GI10" t="s"/>
+      <c r="GJ10" t="s"/>
+      <c r="GK10" t="s"/>
+      <c r="GL10" t="s"/>
+      <c r="GM10" t="s"/>
+      <c r="GN10" t="s"/>
+      <c r="GO10" t="s"/>
+      <c r="GP10" t="s"/>
+      <c r="GQ10" t="s"/>
+      <c r="GR10" t="s"/>
+      <c r="GS10" t="s"/>
+      <c r="GT10" t="s"/>
+      <c r="GU10" t="s"/>
+      <c r="GV10" t="s"/>
+      <c r="GW10" t="s"/>
+      <c r="GX10" t="s"/>
+      <c r="GY10" t="s"/>
+      <c r="GZ10" t="s"/>
+      <c r="HA10" t="s"/>
+      <c r="HB10" t="s"/>
+      <c r="HC10" t="s"/>
+      <c r="HD10" t="s"/>
+      <c r="HE10" t="s"/>
+      <c r="HF10" t="s"/>
+      <c r="HG10" t="s"/>
+      <c r="HH10" t="s"/>
+      <c r="HI10" t="s"/>
+      <c r="HJ10" t="s"/>
+      <c r="HK10" t="s"/>
+      <c r="HL10" t="s"/>
+      <c r="HM10" t="s"/>
+      <c r="HN10" t="s"/>
+      <c r="HO10" t="s"/>
+      <c r="HP10" t="s"/>
+      <c r="HQ10" t="s"/>
+      <c r="HR10" t="s"/>
+      <c r="HS10" t="s"/>
+      <c r="HT10" t="s"/>
+      <c r="HU10" t="s"/>
+      <c r="HV10" t="s"/>
+      <c r="HW10" t="s"/>
+      <c r="HX10" t="s"/>
+      <c r="HY10" t="s"/>
+      <c r="HZ10" t="s"/>
+      <c r="IA10" t="s"/>
+      <c r="IB10" t="s"/>
+      <c r="IC10" t="s"/>
+      <c r="ID10" t="s"/>
+      <c r="IE10" t="s"/>
+      <c r="IF10" t="s"/>
+      <c r="IG10" t="s"/>
+      <c r="IH10" t="s"/>
+      <c r="II10" t="s"/>
+      <c r="IJ10" t="s"/>
+      <c r="IK10" t="s"/>
+      <c r="IL10" t="s"/>
+      <c r="IM10" t="s"/>
+      <c r="IN10" t="s"/>
+      <c r="IO10" t="s"/>
+      <c r="IP10" t="s"/>
+      <c r="IQ10" t="s"/>
+      <c r="IR10" t="s"/>
+      <c r="IS10" t="s"/>
+      <c r="IT10" t="s"/>
+      <c r="IU10" t="s"/>
+      <c r="IV10" t="s"/>
+      <c r="IW10" t="s"/>
+      <c r="IX10" t="s"/>
+      <c r="IY10" t="s"/>
+      <c r="IZ10" t="s"/>
+      <c r="JA10" t="s"/>
+      <c r="JB10" t="s"/>
+      <c r="JC10" t="s"/>
+      <c r="JD10" t="s"/>
+      <c r="JE10" t="s"/>
+      <c r="JF10" t="s"/>
+      <c r="JG10" t="s"/>
+      <c r="JH10" t="s"/>
+      <c r="JI10" t="s"/>
+      <c r="JJ10" t="s"/>
+      <c r="JK10" t="s"/>
+      <c r="JL10" t="s"/>
+      <c r="JM10" t="s"/>
+      <c r="JN10" t="s"/>
+      <c r="JO10" t="s"/>
+      <c r="JP10" t="s"/>
+      <c r="JQ10" t="s"/>
+      <c r="JR10" t="s"/>
+      <c r="JS10" t="s"/>
+      <c r="JT10" t="s"/>
+      <c r="JU10" t="s"/>
+      <c r="JV10" t="s"/>
+      <c r="JW10" t="s"/>
+      <c r="JX10" t="s"/>
+      <c r="JY10" t="s"/>
+      <c r="JZ10" t="s"/>
+      <c r="KA10" t="s"/>
+      <c r="KB10" t="s"/>
+      <c r="KC10" t="s"/>
+      <c r="KD10" t="s"/>
+      <c r="KE10" t="s"/>
+      <c r="KF10" t="s"/>
+      <c r="KG10" t="s"/>
+      <c r="KH10" t="s"/>
+      <c r="KI10" t="s"/>
+      <c r="KJ10" t="s"/>
+      <c r="KK10" t="s"/>
+      <c r="KL10" t="s"/>
+      <c r="KM10" t="s"/>
+      <c r="KN10" t="s"/>
+      <c r="KO10" t="s"/>
+      <c r="KP10" t="s"/>
+      <c r="KQ10" t="s"/>
+      <c r="KR10" t="s"/>
+      <c r="KS10" t="s"/>
+      <c r="KT10" t="s"/>
+      <c r="KU10" t="s"/>
+      <c r="KV10" t="s"/>
+      <c r="KW10" t="s"/>
+      <c r="KX10" t="s"/>
+      <c r="KY10" t="s"/>
+      <c r="KZ10" t="s"/>
+      <c r="LA10" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
